--- a/atomica/library/tb_databook.xlsx
+++ b/atomica/library/tb_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F535F12A-A6BB-4756-94E0-2E98478E399A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83CE82-62F9-492C-B50D-BDD40F5C789C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,16 @@
     <sheet name="Optional data" sheetId="8" r:id="rId8"/>
     <sheet name="Infection susceptibility" sheetId="9" r:id="rId9"/>
     <sheet name="Untreated TB progression rates" sheetId="10" r:id="rId10"/>
-    <sheet name="Interactions" sheetId="11" r:id="rId11"/>
-    <sheet name="Transfers" sheetId="12" r:id="rId12"/>
+    <sheet name="DALYs" sheetId="13" r:id="rId11"/>
+    <sheet name="Interactions" sheetId="11" r:id="rId12"/>
+    <sheet name="Transfers" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="145">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -456,6 +458,24 @@
   <si>
     <t>Incarceration</t>
   </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Estimated number of years of life remaining</t>
+  </si>
+  <si>
+    <t>YLD weighting for TB under treatment</t>
+  </si>
+  <si>
+    <t>YLD weighting for untreated TB</t>
+  </si>
+  <si>
+    <t>#ignore</t>
+  </si>
+  <si>
+    <t>Life expectancy (years)</t>
+  </si>
 </sst>
 </file>
 
@@ -560,7 +580,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1516">
+  <dxfs count="1552">
     <dxf>
       <fill>
         <patternFill>
@@ -5819,6 +5839,222 @@
         <patternFill>
           <bgColor rgb="FFFFA500"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -12710,10 +12946,10 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13492,7 +13728,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>15</v>
@@ -13525,7 +13761,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
@@ -13558,7 +13794,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>15</v>
@@ -13591,7 +13827,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
@@ -13624,7 +13860,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>15</v>
@@ -16651,928 +16887,657 @@
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F120" s="1">
-        <v>2001</v>
-      </c>
-      <c r="G120" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H120" s="1">
-        <v>2003</v>
-      </c>
-      <c r="I120" s="1">
-        <v>2004</v>
-      </c>
-      <c r="J120" s="1">
-        <v>2005</v>
-      </c>
-      <c r="K120" s="1">
-        <v>2006</v>
-      </c>
-      <c r="L120" s="1">
-        <v>2007</v>
-      </c>
-      <c r="M120" s="1">
-        <v>2008</v>
-      </c>
-      <c r="N120" s="1">
-        <v>2009</v>
-      </c>
-      <c r="O120" s="1">
-        <v>2010</v>
-      </c>
-      <c r="P120" s="1">
-        <v>2011</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>2012</v>
-      </c>
-      <c r="R120" s="1">
-        <v>2013</v>
-      </c>
-      <c r="S120" s="1">
-        <v>2014</v>
-      </c>
-      <c r="T120" s="1">
-        <v>2015</v>
-      </c>
-      <c r="U120" s="1">
-        <v>2016</v>
-      </c>
-      <c r="V120" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>0-4</v>
-      </c>
-      <c r="B121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>5-14</v>
-      </c>
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>15-64</v>
-      </c>
-      <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>65+</v>
-      </c>
-      <c r="B124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="str">
-        <f>'Population Definitions'!$B$6</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="601" priority="23">
+    <cfRule type="expression" dxfId="637" priority="23">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="24">
+    <cfRule type="expression" dxfId="636" priority="24">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="599" priority="151">
+    <cfRule type="expression" dxfId="635" priority="151">
       <formula>COUNTIF(E100:V100,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="152">
+    <cfRule type="expression" dxfId="634" priority="152">
       <formula>AND(COUNTIF(E100:V100,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="597" priority="153">
+    <cfRule type="expression" dxfId="633" priority="153">
       <formula>COUNTIF(E101:V101,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="154">
+    <cfRule type="expression" dxfId="632" priority="154">
       <formula>AND(COUNTIF(E101:V101,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="595" priority="155">
+    <cfRule type="expression" dxfId="631" priority="155">
       <formula>COUNTIF(E102:V102,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="156">
+    <cfRule type="expression" dxfId="630" priority="156">
       <formula>AND(COUNTIF(E102:V102,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="593" priority="157">
+    <cfRule type="expression" dxfId="629" priority="157">
       <formula>COUNTIF(E103:V103,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="158">
+    <cfRule type="expression" dxfId="628" priority="158">
       <formula>AND(COUNTIF(E103:V103,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="591" priority="159">
+    <cfRule type="expression" dxfId="627" priority="159">
       <formula>COUNTIF(E104:V104,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="160">
+    <cfRule type="expression" dxfId="626" priority="160">
       <formula>AND(COUNTIF(E104:V104,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="589" priority="161">
+    <cfRule type="expression" dxfId="625" priority="161">
       <formula>COUNTIF(E107:V107,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="162">
+    <cfRule type="expression" dxfId="624" priority="162">
       <formula>AND(COUNTIF(E107:V107,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="587" priority="163">
+    <cfRule type="expression" dxfId="623" priority="163">
       <formula>COUNTIF(E108:V108,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="164">
+    <cfRule type="expression" dxfId="622" priority="164">
       <formula>AND(COUNTIF(E108:V108,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="expression" dxfId="585" priority="165">
+    <cfRule type="expression" dxfId="621" priority="165">
       <formula>COUNTIF(E109:V109,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="166">
+    <cfRule type="expression" dxfId="620" priority="166">
       <formula>AND(COUNTIF(E109:V109,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="583" priority="25">
+    <cfRule type="expression" dxfId="619" priority="25">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="26">
+    <cfRule type="expression" dxfId="618" priority="26">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="expression" dxfId="581" priority="167">
+    <cfRule type="expression" dxfId="617" priority="167">
       <formula>COUNTIF(E110:V110,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="168">
+    <cfRule type="expression" dxfId="616" priority="168">
       <formula>AND(COUNTIF(E110:V110,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="579" priority="169">
+    <cfRule type="expression" dxfId="615" priority="169">
       <formula>COUNTIF(E111:V111,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="170">
+    <cfRule type="expression" dxfId="614" priority="170">
       <formula>AND(COUNTIF(E111:V111,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="expression" dxfId="577" priority="171">
+    <cfRule type="expression" dxfId="613" priority="171">
       <formula>COUNTIF(E114:V114,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="172">
+    <cfRule type="expression" dxfId="612" priority="172">
       <formula>AND(COUNTIF(E114:V114,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115">
-    <cfRule type="expression" dxfId="575" priority="173">
+    <cfRule type="expression" dxfId="611" priority="173">
       <formula>COUNTIF(E115:V115,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="174">
+    <cfRule type="expression" dxfId="610" priority="174">
       <formula>AND(COUNTIF(E115:V115,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="expression" dxfId="573" priority="175">
+    <cfRule type="expression" dxfId="609" priority="175">
       <formula>COUNTIF(E116:V116,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="176">
+    <cfRule type="expression" dxfId="608" priority="176">
       <formula>AND(COUNTIF(E116:V116,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="expression" dxfId="571" priority="177">
+    <cfRule type="expression" dxfId="607" priority="177">
       <formula>COUNTIF(E117:V117,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="178">
+    <cfRule type="expression" dxfId="606" priority="178">
       <formula>AND(COUNTIF(E117:V117,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="569" priority="179">
+    <cfRule type="expression" dxfId="605" priority="179">
       <formula>COUNTIF(E118:V118,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="180">
+    <cfRule type="expression" dxfId="604" priority="180">
       <formula>AND(COUNTIF(E118:V118,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="567" priority="27">
+    <cfRule type="expression" dxfId="603" priority="27">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="28">
+    <cfRule type="expression" dxfId="602" priority="28">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="565" priority="29">
+    <cfRule type="expression" dxfId="601" priority="29">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="30">
+    <cfRule type="expression" dxfId="600" priority="30">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="563" priority="31">
+    <cfRule type="expression" dxfId="599" priority="31">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="32">
+    <cfRule type="expression" dxfId="598" priority="32">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="561" priority="33">
+    <cfRule type="expression" dxfId="597" priority="33">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="34">
+    <cfRule type="expression" dxfId="596" priority="34">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="559" priority="35">
+    <cfRule type="expression" dxfId="595" priority="35">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="36">
+    <cfRule type="expression" dxfId="594" priority="36">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="557" priority="37">
+    <cfRule type="expression" dxfId="593" priority="37">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="38">
+    <cfRule type="expression" dxfId="592" priority="38">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="555" priority="11">
+    <cfRule type="expression" dxfId="591" priority="11">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="12">
+    <cfRule type="expression" dxfId="590" priority="12">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="553" priority="39">
+    <cfRule type="expression" dxfId="589" priority="39">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="40">
+    <cfRule type="expression" dxfId="588" priority="40">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="551" priority="41">
+  <conditionalFormatting sqref="C23:C27">
+    <cfRule type="expression" dxfId="587" priority="41">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="42">
+    <cfRule type="expression" dxfId="586" priority="42">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="549" priority="43">
-      <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="548" priority="44">
-      <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="547" priority="45">
-      <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="546" priority="46">
-      <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="545" priority="47">
-      <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="544" priority="48">
-      <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="543" priority="49">
-      <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="542" priority="50">
-      <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="541" priority="13">
+    <cfRule type="expression" dxfId="577" priority="13">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="14">
+    <cfRule type="expression" dxfId="576" priority="14">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="539" priority="51">
+    <cfRule type="expression" dxfId="575" priority="51">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="52">
+    <cfRule type="expression" dxfId="574" priority="52">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="537" priority="53">
+    <cfRule type="expression" dxfId="573" priority="53">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="54">
+    <cfRule type="expression" dxfId="572" priority="54">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="535" priority="55">
+    <cfRule type="expression" dxfId="571" priority="55">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="56">
+    <cfRule type="expression" dxfId="570" priority="56">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="533" priority="57">
+    <cfRule type="expression" dxfId="569" priority="57">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="58">
+    <cfRule type="expression" dxfId="568" priority="58">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="531" priority="59">
+    <cfRule type="expression" dxfId="567" priority="59">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="60">
+    <cfRule type="expression" dxfId="566" priority="60">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="529" priority="61">
+    <cfRule type="expression" dxfId="565" priority="61">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="62">
+    <cfRule type="expression" dxfId="564" priority="62">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="527" priority="63">
+    <cfRule type="expression" dxfId="563" priority="63">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="64">
+    <cfRule type="expression" dxfId="562" priority="64">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="525" priority="65">
+    <cfRule type="expression" dxfId="561" priority="65">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="66">
+    <cfRule type="expression" dxfId="560" priority="66">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="523" priority="15">
+    <cfRule type="expression" dxfId="559" priority="15">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="16">
+    <cfRule type="expression" dxfId="558" priority="16">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="521" priority="67">
+    <cfRule type="expression" dxfId="557" priority="67">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="68">
+    <cfRule type="expression" dxfId="556" priority="68">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="519" priority="69">
+    <cfRule type="expression" dxfId="555" priority="69">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="70">
+    <cfRule type="expression" dxfId="554" priority="70">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="517" priority="71">
+    <cfRule type="expression" dxfId="553" priority="71">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="72">
+    <cfRule type="expression" dxfId="552" priority="72">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="515" priority="73">
+    <cfRule type="expression" dxfId="551" priority="73">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="74">
+    <cfRule type="expression" dxfId="550" priority="74">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="513" priority="75">
+    <cfRule type="expression" dxfId="549" priority="75">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="76">
+    <cfRule type="expression" dxfId="548" priority="76">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="511" priority="77">
+    <cfRule type="expression" dxfId="547" priority="77">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="78">
+    <cfRule type="expression" dxfId="546" priority="78">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="509" priority="79">
+    <cfRule type="expression" dxfId="545" priority="79">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="80">
+    <cfRule type="expression" dxfId="544" priority="80">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="507" priority="17">
+    <cfRule type="expression" dxfId="543" priority="17">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="18">
+    <cfRule type="expression" dxfId="542" priority="18">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="505" priority="81">
+    <cfRule type="expression" dxfId="541" priority="81">
       <formula>COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="82">
+    <cfRule type="expression" dxfId="540" priority="82">
       <formula>AND(COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="503" priority="83">
+    <cfRule type="expression" dxfId="539" priority="83">
       <formula>COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="84">
+    <cfRule type="expression" dxfId="538" priority="84">
       <formula>AND(COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="501" priority="85">
+    <cfRule type="expression" dxfId="537" priority="85">
       <formula>COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="86">
+    <cfRule type="expression" dxfId="536" priority="86">
       <formula>AND(COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="499" priority="87">
+    <cfRule type="expression" dxfId="535" priority="87">
       <formula>COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="88">
+    <cfRule type="expression" dxfId="534" priority="88">
       <formula>AND(COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="497" priority="89">
+    <cfRule type="expression" dxfId="533" priority="89">
       <formula>COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="90">
+    <cfRule type="expression" dxfId="532" priority="90">
       <formula>AND(COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="495" priority="91">
+    <cfRule type="expression" dxfId="531" priority="91">
       <formula>COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="92">
+    <cfRule type="expression" dxfId="530" priority="92">
       <formula>AND(COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="493" priority="93">
+    <cfRule type="expression" dxfId="529" priority="93">
       <formula>COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="94">
+    <cfRule type="expression" dxfId="528" priority="94">
       <formula>AND(COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="491" priority="19">
+    <cfRule type="expression" dxfId="527" priority="19">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="20">
+    <cfRule type="expression" dxfId="526" priority="20">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="489" priority="95">
+    <cfRule type="expression" dxfId="525" priority="95">
       <formula>COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="96">
+    <cfRule type="expression" dxfId="524" priority="96">
       <formula>AND(COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="487" priority="97">
+    <cfRule type="expression" dxfId="523" priority="97">
       <formula>COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="98">
+    <cfRule type="expression" dxfId="522" priority="98">
       <formula>AND(COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="485" priority="99">
+    <cfRule type="expression" dxfId="521" priority="99">
       <formula>COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="100">
+    <cfRule type="expression" dxfId="520" priority="100">
       <formula>AND(COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="483" priority="101">
+    <cfRule type="expression" dxfId="519" priority="101">
       <formula>COUNTIF(E65:V65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="102">
+    <cfRule type="expression" dxfId="518" priority="102">
       <formula>AND(COUNTIF(E65:V65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="481" priority="103">
+    <cfRule type="expression" dxfId="517" priority="103">
       <formula>COUNTIF(E66:V66,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="104">
+    <cfRule type="expression" dxfId="516" priority="104">
       <formula>AND(COUNTIF(E66:V66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="479" priority="105">
+    <cfRule type="expression" dxfId="515" priority="105">
       <formula>COUNTIF(E67:V67,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="106">
+    <cfRule type="expression" dxfId="514" priority="106">
       <formula>AND(COUNTIF(E67:V67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="477" priority="107">
+    <cfRule type="expression" dxfId="513" priority="107">
       <formula>COUNTIF(E68:V68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="108">
+    <cfRule type="expression" dxfId="512" priority="108">
       <formula>AND(COUNTIF(E68:V68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="475" priority="109">
+    <cfRule type="expression" dxfId="511" priority="109">
       <formula>COUNTIF(E69:V69,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="110">
+    <cfRule type="expression" dxfId="510" priority="110">
       <formula>AND(COUNTIF(E69:V69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="473" priority="111">
+    <cfRule type="expression" dxfId="509" priority="111">
       <formula>COUNTIF(E72:V72,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="112">
+    <cfRule type="expression" dxfId="508" priority="112">
       <formula>AND(COUNTIF(E72:V72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="471" priority="113">
+    <cfRule type="expression" dxfId="507" priority="113">
       <formula>COUNTIF(E73:V73,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="114">
+    <cfRule type="expression" dxfId="506" priority="114">
       <formula>AND(COUNTIF(E73:V73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="469" priority="115">
+    <cfRule type="expression" dxfId="505" priority="115">
       <formula>COUNTIF(E74:V74,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="116">
+    <cfRule type="expression" dxfId="504" priority="116">
       <formula>AND(COUNTIF(E74:V74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="467" priority="117">
+    <cfRule type="expression" dxfId="503" priority="117">
       <formula>COUNTIF(E75:V75,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="118">
+    <cfRule type="expression" dxfId="502" priority="118">
       <formula>AND(COUNTIF(E75:V75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="465" priority="119">
+    <cfRule type="expression" dxfId="501" priority="119">
       <formula>COUNTIF(E76:V76,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="120">
+    <cfRule type="expression" dxfId="500" priority="120">
       <formula>AND(COUNTIF(E76:V76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="463" priority="121">
+    <cfRule type="expression" dxfId="499" priority="121">
       <formula>COUNTIF(E79:V79,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="122">
+    <cfRule type="expression" dxfId="498" priority="122">
       <formula>AND(COUNTIF(E79:V79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="461" priority="123">
+    <cfRule type="expression" dxfId="497" priority="123">
       <formula>COUNTIF(E80:V80,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="124">
+    <cfRule type="expression" dxfId="496" priority="124">
       <formula>AND(COUNTIF(E80:V80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="459" priority="125">
+    <cfRule type="expression" dxfId="495" priority="125">
       <formula>COUNTIF(E81:V81,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="126">
+    <cfRule type="expression" dxfId="494" priority="126">
       <formula>AND(COUNTIF(E81:V81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="457" priority="127">
+    <cfRule type="expression" dxfId="493" priority="127">
       <formula>COUNTIF(E82:V82,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="128">
+    <cfRule type="expression" dxfId="492" priority="128">
       <formula>AND(COUNTIF(E82:V82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="455" priority="129">
+    <cfRule type="expression" dxfId="491" priority="129">
       <formula>COUNTIF(E83:V83,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="130">
+    <cfRule type="expression" dxfId="490" priority="130">
       <formula>AND(COUNTIF(E83:V83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="453" priority="131">
+    <cfRule type="expression" dxfId="489" priority="131">
       <formula>COUNTIF(E86:V86,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="132">
+    <cfRule type="expression" dxfId="488" priority="132">
       <formula>AND(COUNTIF(E86:V86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="451" priority="133">
+    <cfRule type="expression" dxfId="487" priority="133">
       <formula>COUNTIF(E87:V87,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="134">
+    <cfRule type="expression" dxfId="486" priority="134">
       <formula>AND(COUNTIF(E87:V87,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="449" priority="135">
+    <cfRule type="expression" dxfId="485" priority="135">
       <formula>COUNTIF(E88:V88,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="136">
+    <cfRule type="expression" dxfId="484" priority="136">
       <formula>AND(COUNTIF(E88:V88,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="447" priority="137">
+    <cfRule type="expression" dxfId="483" priority="137">
       <formula>COUNTIF(E89:V89,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="138">
+    <cfRule type="expression" dxfId="482" priority="138">
       <formula>AND(COUNTIF(E89:V89,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="445" priority="21">
+    <cfRule type="expression" dxfId="481" priority="21">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="22">
+    <cfRule type="expression" dxfId="480" priority="22">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="443" priority="139">
+    <cfRule type="expression" dxfId="479" priority="139">
       <formula>COUNTIF(E90:V90,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="140">
+    <cfRule type="expression" dxfId="478" priority="140">
       <formula>AND(COUNTIF(E90:V90,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="441" priority="141">
+    <cfRule type="expression" dxfId="477" priority="141">
       <formula>COUNTIF(E93:V93,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="142">
+    <cfRule type="expression" dxfId="476" priority="142">
       <formula>AND(COUNTIF(E93:V93,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="439" priority="143">
+    <cfRule type="expression" dxfId="475" priority="143">
       <formula>COUNTIF(E94:V94,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="144">
+    <cfRule type="expression" dxfId="474" priority="144">
       <formula>AND(COUNTIF(E94:V94,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="437" priority="145">
+    <cfRule type="expression" dxfId="473" priority="145">
       <formula>COUNTIF(E95:V95,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="146">
+    <cfRule type="expression" dxfId="472" priority="146">
       <formula>AND(COUNTIF(E95:V95,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="expression" dxfId="435" priority="147">
+    <cfRule type="expression" dxfId="471" priority="147">
       <formula>COUNTIF(E96:V96,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="148">
+    <cfRule type="expression" dxfId="470" priority="148">
       <formula>AND(COUNTIF(E96:V96,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="433" priority="149">
+    <cfRule type="expression" dxfId="469" priority="149">
       <formula>COUNTIF(E97:V97,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="150">
+    <cfRule type="expression" dxfId="468" priority="150">
       <formula>AND(COUNTIF(E97:V97,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C97)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121:C125">
-    <cfRule type="expression" dxfId="431" priority="1">
-      <formula>COUNTIF(E121:V121,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="430" priority="2">
-      <formula>AND(COUNTIF(E121:V121,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B114:B118 B121:B125 B107:B111 B100:B104 B93:B97 B86:B90 B79:B83 B72:B76 B65:B69 B58:B62 B51:B55 B44:B48 B37:B41 B30:B34 B23:B27" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B114:B118 B107:B111 B100:B104 B93:B97 B86:B90 B79:B83 B72:B76 B65:B69 B58:B62 B51:B55 B44:B48 B37:B41 B30:B34 B23:B27" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17581,6 +17546,811 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209C1D65-1ABB-481A-B2FE-C8B00E09892A}">
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>0-4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>5-14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>15-64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>65+</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>'Population Definitions'!$B$6</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2009</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2012</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>0-4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>5-14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>15-64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>65+</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>'Population Definitions'!$B$6</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2004</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2006</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2007</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2008</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2010</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2014</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>0-4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C15-AVERAGE(0,4)</f>
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>5-14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C15-AVERAGE(5,14)</f>
+        <v>70.5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>15-64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4">
+        <f>C15-AVERAGE(15,64)</f>
+        <v>40.5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>65+</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="4">
+        <f>65+(C15-65)/2</f>
+        <v>72.5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>'Population Definitions'!$B$6</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="4">
+        <f>C15-AVERAGE(15,64)</f>
+        <v>40.5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="465" priority="5">
+      <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="464" priority="6">
+      <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="463" priority="3">
+      <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="462" priority="4">
+      <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="461" priority="1">
+      <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="460" priority="2">
+      <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="451" priority="21">
+      <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="450" priority="22">
+      <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
+    <cfRule type="expression" dxfId="449" priority="23">
+      <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="448" priority="24">
+      <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="435" priority="7">
+      <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="434" priority="8">
+      <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="433" priority="9">
+      <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="432" priority="10">
+      <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C13">
+    <cfRule type="expression" dxfId="431" priority="11">
+      <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="12">
+      <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B21" xr:uid="{E551792F-0997-4463-A9E7-997B9350F4FE}">
+      <formula1>"years"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B13 B2:B6" xr:uid="{107888DC-C798-4338-9C17-1A964EE520AD}">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
@@ -19483,7 +20253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
@@ -24822,282 +25592,282 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1515" priority="13">
+    <cfRule type="expression" dxfId="1551" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1514" priority="14">
+    <cfRule type="expression" dxfId="1550" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1513" priority="15">
+    <cfRule type="expression" dxfId="1549" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1512" priority="16">
+    <cfRule type="expression" dxfId="1548" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1511" priority="17">
+    <cfRule type="expression" dxfId="1547" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1510" priority="18">
+    <cfRule type="expression" dxfId="1546" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1509" priority="19">
+    <cfRule type="expression" dxfId="1545" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1508" priority="20">
+    <cfRule type="expression" dxfId="1544" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1507" priority="21">
+    <cfRule type="expression" dxfId="1543" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1506" priority="22">
+    <cfRule type="expression" dxfId="1542" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1505" priority="23">
+    <cfRule type="expression" dxfId="1541" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1504" priority="24">
+    <cfRule type="expression" dxfId="1540" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1503" priority="25">
+    <cfRule type="expression" dxfId="1539" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1502" priority="26">
+    <cfRule type="expression" dxfId="1538" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1501" priority="27">
+    <cfRule type="expression" dxfId="1537" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1500" priority="28">
+    <cfRule type="expression" dxfId="1536" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1499" priority="1">
+    <cfRule type="expression" dxfId="1535" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1498" priority="2">
+    <cfRule type="expression" dxfId="1534" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1497" priority="29">
+    <cfRule type="expression" dxfId="1533" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1496" priority="30">
+    <cfRule type="expression" dxfId="1532" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1495" priority="31">
+    <cfRule type="expression" dxfId="1531" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1494" priority="32">
+    <cfRule type="expression" dxfId="1530" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1493" priority="33">
+    <cfRule type="expression" dxfId="1529" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1492" priority="34">
+    <cfRule type="expression" dxfId="1528" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1491" priority="35">
+    <cfRule type="expression" dxfId="1527" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1490" priority="36">
+    <cfRule type="expression" dxfId="1526" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1489" priority="37">
+    <cfRule type="expression" dxfId="1525" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1488" priority="38">
+    <cfRule type="expression" dxfId="1524" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1487" priority="39">
+    <cfRule type="expression" dxfId="1523" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1486" priority="40">
+    <cfRule type="expression" dxfId="1522" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1485" priority="3">
+    <cfRule type="expression" dxfId="1521" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1484" priority="4">
+    <cfRule type="expression" dxfId="1520" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1483" priority="41">
+    <cfRule type="expression" dxfId="1519" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1482" priority="42">
+    <cfRule type="expression" dxfId="1518" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1481" priority="43">
+    <cfRule type="expression" dxfId="1517" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1480" priority="44">
+    <cfRule type="expression" dxfId="1516" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1479" priority="45">
+    <cfRule type="expression" dxfId="1515" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1478" priority="46">
+    <cfRule type="expression" dxfId="1514" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1477" priority="47">
+    <cfRule type="expression" dxfId="1513" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1476" priority="48">
+    <cfRule type="expression" dxfId="1512" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1475" priority="49">
+    <cfRule type="expression" dxfId="1511" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1474" priority="50">
+    <cfRule type="expression" dxfId="1510" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1473" priority="51">
+    <cfRule type="expression" dxfId="1509" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1472" priority="52">
+    <cfRule type="expression" dxfId="1508" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1471" priority="53">
+    <cfRule type="expression" dxfId="1507" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1470" priority="54">
+    <cfRule type="expression" dxfId="1506" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1469" priority="55">
+    <cfRule type="expression" dxfId="1505" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1468" priority="56">
+    <cfRule type="expression" dxfId="1504" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1467" priority="5">
+    <cfRule type="expression" dxfId="1503" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1466" priority="6">
+    <cfRule type="expression" dxfId="1502" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1465" priority="57">
+    <cfRule type="expression" dxfId="1501" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1464" priority="58">
+    <cfRule type="expression" dxfId="1500" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1463" priority="59">
+    <cfRule type="expression" dxfId="1499" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1462" priority="60">
+    <cfRule type="expression" dxfId="1498" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="1461" priority="61">
+    <cfRule type="expression" dxfId="1497" priority="61">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1460" priority="62">
+    <cfRule type="expression" dxfId="1496" priority="62">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1459" priority="63">
+    <cfRule type="expression" dxfId="1495" priority="63">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1458" priority="64">
+    <cfRule type="expression" dxfId="1494" priority="64">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1457" priority="65">
+    <cfRule type="expression" dxfId="1493" priority="65">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1456" priority="66">
+    <cfRule type="expression" dxfId="1492" priority="66">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="1455" priority="67">
+    <cfRule type="expression" dxfId="1491" priority="67">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1454" priority="68">
+    <cfRule type="expression" dxfId="1490" priority="68">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="1453" priority="69">
+    <cfRule type="expression" dxfId="1489" priority="69">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1452" priority="70">
+    <cfRule type="expression" dxfId="1488" priority="70">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1451" priority="7">
+    <cfRule type="expression" dxfId="1487" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1450" priority="8">
+    <cfRule type="expression" dxfId="1486" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1449" priority="9">
+    <cfRule type="expression" dxfId="1485" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1448" priority="10">
+    <cfRule type="expression" dxfId="1484" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1447" priority="11">
+    <cfRule type="expression" dxfId="1483" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1446" priority="12">
+    <cfRule type="expression" dxfId="1482" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28746,362 +29516,362 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1445" priority="13">
+    <cfRule type="expression" dxfId="1481" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1444" priority="14">
+    <cfRule type="expression" dxfId="1480" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1443" priority="15">
+    <cfRule type="expression" dxfId="1479" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1442" priority="16">
+    <cfRule type="expression" dxfId="1478" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1441" priority="17">
+    <cfRule type="expression" dxfId="1477" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1440" priority="18">
+    <cfRule type="expression" dxfId="1476" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1439" priority="19">
+    <cfRule type="expression" dxfId="1475" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1438" priority="20">
+    <cfRule type="expression" dxfId="1474" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1437" priority="21">
+    <cfRule type="expression" dxfId="1473" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1436" priority="22">
+    <cfRule type="expression" dxfId="1472" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1435" priority="23">
+    <cfRule type="expression" dxfId="1471" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1434" priority="24">
+    <cfRule type="expression" dxfId="1470" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1433" priority="25">
+    <cfRule type="expression" dxfId="1469" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1432" priority="26">
+    <cfRule type="expression" dxfId="1468" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1431" priority="27">
+    <cfRule type="expression" dxfId="1467" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1430" priority="28">
+    <cfRule type="expression" dxfId="1466" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1429" priority="1">
+    <cfRule type="expression" dxfId="1465" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1428" priority="2">
+    <cfRule type="expression" dxfId="1464" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1427" priority="29">
+    <cfRule type="expression" dxfId="1463" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1426" priority="30">
+    <cfRule type="expression" dxfId="1462" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1425" priority="31">
+    <cfRule type="expression" dxfId="1461" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1424" priority="32">
+    <cfRule type="expression" dxfId="1460" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1423" priority="33">
+    <cfRule type="expression" dxfId="1459" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1422" priority="34">
+    <cfRule type="expression" dxfId="1458" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1421" priority="35">
+    <cfRule type="expression" dxfId="1457" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1420" priority="36">
+    <cfRule type="expression" dxfId="1456" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1419" priority="37">
+    <cfRule type="expression" dxfId="1455" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1418" priority="38">
+    <cfRule type="expression" dxfId="1454" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1417" priority="39">
+    <cfRule type="expression" dxfId="1453" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1416" priority="40">
+    <cfRule type="expression" dxfId="1452" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1415" priority="3">
+    <cfRule type="expression" dxfId="1451" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1414" priority="4">
+    <cfRule type="expression" dxfId="1450" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1413" priority="41">
+    <cfRule type="expression" dxfId="1449" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1412" priority="42">
+    <cfRule type="expression" dxfId="1448" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1411" priority="43">
+    <cfRule type="expression" dxfId="1447" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1410" priority="44">
+    <cfRule type="expression" dxfId="1446" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1409" priority="45">
+    <cfRule type="expression" dxfId="1445" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1408" priority="46">
+    <cfRule type="expression" dxfId="1444" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1407" priority="47">
+    <cfRule type="expression" dxfId="1443" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1406" priority="48">
+    <cfRule type="expression" dxfId="1442" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1405" priority="49">
+    <cfRule type="expression" dxfId="1441" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1404" priority="50">
+    <cfRule type="expression" dxfId="1440" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1403" priority="51">
+    <cfRule type="expression" dxfId="1439" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1402" priority="52">
+    <cfRule type="expression" dxfId="1438" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1401" priority="53">
+    <cfRule type="expression" dxfId="1437" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1400" priority="54">
+    <cfRule type="expression" dxfId="1436" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1399" priority="55">
+    <cfRule type="expression" dxfId="1435" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1398" priority="56">
+    <cfRule type="expression" dxfId="1434" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1397" priority="5">
+    <cfRule type="expression" dxfId="1433" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1396" priority="6">
+    <cfRule type="expression" dxfId="1432" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1395" priority="57">
+    <cfRule type="expression" dxfId="1431" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1394" priority="58">
+    <cfRule type="expression" dxfId="1430" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1393" priority="59">
+    <cfRule type="expression" dxfId="1429" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1392" priority="60">
+    <cfRule type="expression" dxfId="1428" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="1391" priority="61">
+    <cfRule type="expression" dxfId="1427" priority="61">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1390" priority="62">
+    <cfRule type="expression" dxfId="1426" priority="62">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1389" priority="63">
+    <cfRule type="expression" dxfId="1425" priority="63">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1388" priority="64">
+    <cfRule type="expression" dxfId="1424" priority="64">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1387" priority="65">
+    <cfRule type="expression" dxfId="1423" priority="65">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1386" priority="66">
+    <cfRule type="expression" dxfId="1422" priority="66">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="1385" priority="67">
+    <cfRule type="expression" dxfId="1421" priority="67">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1384" priority="68">
+    <cfRule type="expression" dxfId="1420" priority="68">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="1383" priority="69">
+    <cfRule type="expression" dxfId="1419" priority="69">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1382" priority="70">
+    <cfRule type="expression" dxfId="1418" priority="70">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1381" priority="7">
+    <cfRule type="expression" dxfId="1417" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1380" priority="8">
+    <cfRule type="expression" dxfId="1416" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="1379" priority="71">
+    <cfRule type="expression" dxfId="1415" priority="71">
       <formula>COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1378" priority="72">
+    <cfRule type="expression" dxfId="1414" priority="72">
       <formula>AND(COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="1377" priority="73">
+    <cfRule type="expression" dxfId="1413" priority="73">
       <formula>COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1376" priority="74">
+    <cfRule type="expression" dxfId="1412" priority="74">
       <formula>AND(COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="1375" priority="75">
+    <cfRule type="expression" dxfId="1411" priority="75">
       <formula>COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1374" priority="76">
+    <cfRule type="expression" dxfId="1410" priority="76">
       <formula>AND(COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="1373" priority="77">
+    <cfRule type="expression" dxfId="1409" priority="77">
       <formula>COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1372" priority="78">
+    <cfRule type="expression" dxfId="1408" priority="78">
       <formula>AND(COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="1371" priority="79">
+    <cfRule type="expression" dxfId="1407" priority="79">
       <formula>COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1370" priority="80">
+    <cfRule type="expression" dxfId="1406" priority="80">
       <formula>AND(COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="1369" priority="81">
+    <cfRule type="expression" dxfId="1405" priority="81">
       <formula>COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1368" priority="82">
+    <cfRule type="expression" dxfId="1404" priority="82">
       <formula>AND(COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="1367" priority="83">
+    <cfRule type="expression" dxfId="1403" priority="83">
       <formula>COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1366" priority="84">
+    <cfRule type="expression" dxfId="1402" priority="84">
       <formula>AND(COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1365" priority="9">
+    <cfRule type="expression" dxfId="1401" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1364" priority="10">
+    <cfRule type="expression" dxfId="1400" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="1363" priority="85">
+    <cfRule type="expression" dxfId="1399" priority="85">
       <formula>COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1362" priority="86">
+    <cfRule type="expression" dxfId="1398" priority="86">
       <formula>AND(COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="1361" priority="87">
+    <cfRule type="expression" dxfId="1397" priority="87">
       <formula>COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1360" priority="88">
+    <cfRule type="expression" dxfId="1396" priority="88">
       <formula>AND(COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="1359" priority="89">
+    <cfRule type="expression" dxfId="1395" priority="89">
       <formula>COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1358" priority="90">
+    <cfRule type="expression" dxfId="1394" priority="90">
       <formula>AND(COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1357" priority="11">
+    <cfRule type="expression" dxfId="1393" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1356" priority="12">
+    <cfRule type="expression" dxfId="1392" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33062,618 +33832,618 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1355" priority="13">
+    <cfRule type="expression" dxfId="1391" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1354" priority="14">
+    <cfRule type="expression" dxfId="1390" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="1353" priority="141">
+    <cfRule type="expression" dxfId="1389" priority="141">
       <formula>COUNTIF(E100:V100,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1352" priority="142">
+    <cfRule type="expression" dxfId="1388" priority="142">
       <formula>AND(COUNTIF(E100:V100,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="1351" priority="143">
+    <cfRule type="expression" dxfId="1387" priority="143">
       <formula>COUNTIF(E101:V101,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1350" priority="144">
+    <cfRule type="expression" dxfId="1386" priority="144">
       <formula>AND(COUNTIF(E101:V101,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="1349" priority="145">
+    <cfRule type="expression" dxfId="1385" priority="145">
       <formula>COUNTIF(E102:V102,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1348" priority="146">
+    <cfRule type="expression" dxfId="1384" priority="146">
       <formula>AND(COUNTIF(E102:V102,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="1347" priority="147">
+    <cfRule type="expression" dxfId="1383" priority="147">
       <formula>COUNTIF(E103:V103,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1346" priority="148">
+    <cfRule type="expression" dxfId="1382" priority="148">
       <formula>AND(COUNTIF(E103:V103,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="1345" priority="149">
+    <cfRule type="expression" dxfId="1381" priority="149">
       <formula>COUNTIF(E104:V104,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1344" priority="150">
+    <cfRule type="expression" dxfId="1380" priority="150">
       <formula>AND(COUNTIF(E104:V104,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="1343" priority="151">
+    <cfRule type="expression" dxfId="1379" priority="151">
       <formula>COUNTIF(E107:V107,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1342" priority="152">
+    <cfRule type="expression" dxfId="1378" priority="152">
       <formula>AND(COUNTIF(E107:V107,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="1341" priority="153">
+    <cfRule type="expression" dxfId="1377" priority="153">
       <formula>COUNTIF(E108:V108,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1340" priority="154">
+    <cfRule type="expression" dxfId="1376" priority="154">
       <formula>AND(COUNTIF(E108:V108,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="expression" dxfId="1339" priority="155">
+    <cfRule type="expression" dxfId="1375" priority="155">
       <formula>COUNTIF(E109:V109,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1338" priority="156">
+    <cfRule type="expression" dxfId="1374" priority="156">
       <formula>AND(COUNTIF(E109:V109,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1337" priority="15">
+    <cfRule type="expression" dxfId="1373" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1336" priority="16">
+    <cfRule type="expression" dxfId="1372" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="expression" dxfId="1335" priority="157">
+    <cfRule type="expression" dxfId="1371" priority="157">
       <formula>COUNTIF(E110:V110,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1334" priority="158">
+    <cfRule type="expression" dxfId="1370" priority="158">
       <formula>AND(COUNTIF(E110:V110,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="1333" priority="159">
+    <cfRule type="expression" dxfId="1369" priority="159">
       <formula>COUNTIF(E111:V111,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1332" priority="160">
+    <cfRule type="expression" dxfId="1368" priority="160">
       <formula>AND(COUNTIF(E111:V111,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="expression" dxfId="1331" priority="161">
+    <cfRule type="expression" dxfId="1367" priority="161">
       <formula>COUNTIF(E114:V114,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1330" priority="162">
+    <cfRule type="expression" dxfId="1366" priority="162">
       <formula>AND(COUNTIF(E114:V114,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115">
-    <cfRule type="expression" dxfId="1329" priority="163">
+    <cfRule type="expression" dxfId="1365" priority="163">
       <formula>COUNTIF(E115:V115,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1328" priority="164">
+    <cfRule type="expression" dxfId="1364" priority="164">
       <formula>AND(COUNTIF(E115:V115,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="expression" dxfId="1327" priority="165">
+    <cfRule type="expression" dxfId="1363" priority="165">
       <formula>COUNTIF(E116:V116,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1326" priority="166">
+    <cfRule type="expression" dxfId="1362" priority="166">
       <formula>AND(COUNTIF(E116:V116,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="expression" dxfId="1325" priority="167">
+    <cfRule type="expression" dxfId="1361" priority="167">
       <formula>COUNTIF(E117:V117,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1324" priority="168">
+    <cfRule type="expression" dxfId="1360" priority="168">
       <formula>AND(COUNTIF(E117:V117,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="1323" priority="169">
+    <cfRule type="expression" dxfId="1359" priority="169">
       <formula>COUNTIF(E118:V118,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1322" priority="170">
+    <cfRule type="expression" dxfId="1358" priority="170">
       <formula>AND(COUNTIF(E118:V118,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1321" priority="17">
+    <cfRule type="expression" dxfId="1357" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1320" priority="18">
+    <cfRule type="expression" dxfId="1356" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1319" priority="19">
+    <cfRule type="expression" dxfId="1355" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1318" priority="20">
+    <cfRule type="expression" dxfId="1354" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1317" priority="21">
+    <cfRule type="expression" dxfId="1353" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1316" priority="22">
+    <cfRule type="expression" dxfId="1352" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1315" priority="23">
+    <cfRule type="expression" dxfId="1351" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1314" priority="24">
+    <cfRule type="expression" dxfId="1350" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1313" priority="25">
+    <cfRule type="expression" dxfId="1349" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1312" priority="26">
+    <cfRule type="expression" dxfId="1348" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1311" priority="27">
+    <cfRule type="expression" dxfId="1347" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1310" priority="28">
+    <cfRule type="expression" dxfId="1346" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1309" priority="1">
+    <cfRule type="expression" dxfId="1345" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1308" priority="2">
+    <cfRule type="expression" dxfId="1344" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1307" priority="29">
+    <cfRule type="expression" dxfId="1343" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1306" priority="30">
+    <cfRule type="expression" dxfId="1342" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1305" priority="31">
+    <cfRule type="expression" dxfId="1341" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1304" priority="32">
+    <cfRule type="expression" dxfId="1340" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1303" priority="33">
+    <cfRule type="expression" dxfId="1339" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1302" priority="34">
+    <cfRule type="expression" dxfId="1338" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1301" priority="35">
+    <cfRule type="expression" dxfId="1337" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1300" priority="36">
+    <cfRule type="expression" dxfId="1336" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1299" priority="37">
+    <cfRule type="expression" dxfId="1335" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1298" priority="38">
+    <cfRule type="expression" dxfId="1334" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1297" priority="39">
+    <cfRule type="expression" dxfId="1333" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1296" priority="40">
+    <cfRule type="expression" dxfId="1332" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1295" priority="3">
+    <cfRule type="expression" dxfId="1331" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1294" priority="4">
+    <cfRule type="expression" dxfId="1330" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1293" priority="41">
+    <cfRule type="expression" dxfId="1329" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1292" priority="42">
+    <cfRule type="expression" dxfId="1328" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1291" priority="43">
+    <cfRule type="expression" dxfId="1327" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1290" priority="44">
+    <cfRule type="expression" dxfId="1326" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1289" priority="45">
+    <cfRule type="expression" dxfId="1325" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1288" priority="46">
+    <cfRule type="expression" dxfId="1324" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1287" priority="47">
+    <cfRule type="expression" dxfId="1323" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1286" priority="48">
+    <cfRule type="expression" dxfId="1322" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1285" priority="49">
+    <cfRule type="expression" dxfId="1321" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1284" priority="50">
+    <cfRule type="expression" dxfId="1320" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1283" priority="51">
+    <cfRule type="expression" dxfId="1319" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="52">
+    <cfRule type="expression" dxfId="1318" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1281" priority="53">
+    <cfRule type="expression" dxfId="1317" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1280" priority="54">
+    <cfRule type="expression" dxfId="1316" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1279" priority="55">
+    <cfRule type="expression" dxfId="1315" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1278" priority="56">
+    <cfRule type="expression" dxfId="1314" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1277" priority="5">
+    <cfRule type="expression" dxfId="1313" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1276" priority="6">
+    <cfRule type="expression" dxfId="1312" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1275" priority="57">
+    <cfRule type="expression" dxfId="1311" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="58">
+    <cfRule type="expression" dxfId="1310" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1273" priority="59">
+    <cfRule type="expression" dxfId="1309" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1272" priority="60">
+    <cfRule type="expression" dxfId="1308" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C48">
-    <cfRule type="expression" dxfId="1271" priority="61">
+    <cfRule type="expression" dxfId="1307" priority="61">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1270" priority="62">
+    <cfRule type="expression" dxfId="1306" priority="62">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1269" priority="7">
+    <cfRule type="expression" dxfId="1305" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1268" priority="8">
+    <cfRule type="expression" dxfId="1304" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="1267" priority="71">
+    <cfRule type="expression" dxfId="1303" priority="71">
       <formula>COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="72">
+    <cfRule type="expression" dxfId="1302" priority="72">
       <formula>AND(COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="1265" priority="73">
+    <cfRule type="expression" dxfId="1301" priority="73">
       <formula>COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1264" priority="74">
+    <cfRule type="expression" dxfId="1300" priority="74">
       <formula>AND(COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="1263" priority="75">
+    <cfRule type="expression" dxfId="1299" priority="75">
       <formula>COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1262" priority="76">
+    <cfRule type="expression" dxfId="1298" priority="76">
       <formula>AND(COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="1261" priority="77">
+    <cfRule type="expression" dxfId="1297" priority="77">
       <formula>COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1260" priority="78">
+    <cfRule type="expression" dxfId="1296" priority="78">
       <formula>AND(COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="1259" priority="79">
+    <cfRule type="expression" dxfId="1295" priority="79">
       <formula>COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="80">
+    <cfRule type="expression" dxfId="1294" priority="80">
       <formula>AND(COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="1257" priority="81">
+    <cfRule type="expression" dxfId="1293" priority="81">
       <formula>COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1256" priority="82">
+    <cfRule type="expression" dxfId="1292" priority="82">
       <formula>AND(COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="1255" priority="83">
+    <cfRule type="expression" dxfId="1291" priority="83">
       <formula>COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1254" priority="84">
+    <cfRule type="expression" dxfId="1290" priority="84">
       <formula>AND(COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1253" priority="9">
+    <cfRule type="expression" dxfId="1289" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1252" priority="10">
+    <cfRule type="expression" dxfId="1288" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="1251" priority="85">
+    <cfRule type="expression" dxfId="1287" priority="85">
       <formula>COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="86">
+    <cfRule type="expression" dxfId="1286" priority="86">
       <formula>AND(COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="1249" priority="87">
+    <cfRule type="expression" dxfId="1285" priority="87">
       <formula>COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1248" priority="88">
+    <cfRule type="expression" dxfId="1284" priority="88">
       <formula>AND(COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="1247" priority="89">
+    <cfRule type="expression" dxfId="1283" priority="89">
       <formula>COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1246" priority="90">
+    <cfRule type="expression" dxfId="1282" priority="90">
       <formula>AND(COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="1245" priority="91">
+    <cfRule type="expression" dxfId="1281" priority="91">
       <formula>COUNTIF(E65:V65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1244" priority="92">
+    <cfRule type="expression" dxfId="1280" priority="92">
       <formula>AND(COUNTIF(E65:V65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="1243" priority="93">
+    <cfRule type="expression" dxfId="1279" priority="93">
       <formula>COUNTIF(E66:V66,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="94">
+    <cfRule type="expression" dxfId="1278" priority="94">
       <formula>AND(COUNTIF(E66:V66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="1241" priority="95">
+    <cfRule type="expression" dxfId="1277" priority="95">
       <formula>COUNTIF(E67:V67,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1240" priority="96">
+    <cfRule type="expression" dxfId="1276" priority="96">
       <formula>AND(COUNTIF(E67:V67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="1239" priority="97">
+    <cfRule type="expression" dxfId="1275" priority="97">
       <formula>COUNTIF(E68:V68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1238" priority="98">
+    <cfRule type="expression" dxfId="1274" priority="98">
       <formula>AND(COUNTIF(E68:V68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="1237" priority="99">
+    <cfRule type="expression" dxfId="1273" priority="99">
       <formula>COUNTIF(E69:V69,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1236" priority="100">
+    <cfRule type="expression" dxfId="1272" priority="100">
       <formula>AND(COUNTIF(E69:V69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="1235" priority="101">
+    <cfRule type="expression" dxfId="1271" priority="101">
       <formula>COUNTIF(E72:V72,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="102">
+    <cfRule type="expression" dxfId="1270" priority="102">
       <formula>AND(COUNTIF(E72:V72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="1233" priority="103">
+    <cfRule type="expression" dxfId="1269" priority="103">
       <formula>COUNTIF(E73:V73,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1232" priority="104">
+    <cfRule type="expression" dxfId="1268" priority="104">
       <formula>AND(COUNTIF(E73:V73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="1231" priority="105">
+    <cfRule type="expression" dxfId="1267" priority="105">
       <formula>COUNTIF(E74:V74,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1230" priority="106">
+    <cfRule type="expression" dxfId="1266" priority="106">
       <formula>AND(COUNTIF(E74:V74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="1229" priority="107">
+    <cfRule type="expression" dxfId="1265" priority="107">
       <formula>COUNTIF(E75:V75,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1228" priority="108">
+    <cfRule type="expression" dxfId="1264" priority="108">
       <formula>AND(COUNTIF(E75:V75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="1227" priority="109">
+    <cfRule type="expression" dxfId="1263" priority="109">
       <formula>COUNTIF(E76:V76,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="110">
+    <cfRule type="expression" dxfId="1262" priority="110">
       <formula>AND(COUNTIF(E76:V76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="1225" priority="111">
+    <cfRule type="expression" dxfId="1261" priority="111">
       <formula>COUNTIF(E79:V79,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1224" priority="112">
+    <cfRule type="expression" dxfId="1260" priority="112">
       <formula>AND(COUNTIF(E79:V79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="1223" priority="113">
+    <cfRule type="expression" dxfId="1259" priority="113">
       <formula>COUNTIF(E80:V80,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1222" priority="114">
+    <cfRule type="expression" dxfId="1258" priority="114">
       <formula>AND(COUNTIF(E80:V80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="1221" priority="115">
+    <cfRule type="expression" dxfId="1257" priority="115">
       <formula>COUNTIF(E81:V81,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1220" priority="116">
+    <cfRule type="expression" dxfId="1256" priority="116">
       <formula>AND(COUNTIF(E81:V81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="1219" priority="117">
+    <cfRule type="expression" dxfId="1255" priority="117">
       <formula>COUNTIF(E82:V82,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="118">
+    <cfRule type="expression" dxfId="1254" priority="118">
       <formula>AND(COUNTIF(E82:V82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="1217" priority="119">
+    <cfRule type="expression" dxfId="1253" priority="119">
       <formula>COUNTIF(E83:V83,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1216" priority="120">
+    <cfRule type="expression" dxfId="1252" priority="120">
       <formula>AND(COUNTIF(E83:V83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:C90">
-    <cfRule type="expression" dxfId="1215" priority="121">
+    <cfRule type="expression" dxfId="1251" priority="121">
       <formula>COUNTIF(E86:V86,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1214" priority="122">
+    <cfRule type="expression" dxfId="1250" priority="122">
       <formula>AND(COUNTIF(E86:V86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1213" priority="11">
+    <cfRule type="expression" dxfId="1249" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1212" priority="12">
+    <cfRule type="expression" dxfId="1248" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="1211" priority="131">
+    <cfRule type="expression" dxfId="1247" priority="131">
       <formula>COUNTIF(E93:V93,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="132">
+    <cfRule type="expression" dxfId="1246" priority="132">
       <formula>AND(COUNTIF(E93:V93,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="1209" priority="133">
+    <cfRule type="expression" dxfId="1245" priority="133">
       <formula>COUNTIF(E94:V94,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1208" priority="134">
+    <cfRule type="expression" dxfId="1244" priority="134">
       <formula>AND(COUNTIF(E94:V94,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="1207" priority="135">
+    <cfRule type="expression" dxfId="1243" priority="135">
       <formula>COUNTIF(E95:V95,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1206" priority="136">
+    <cfRule type="expression" dxfId="1242" priority="136">
       <formula>AND(COUNTIF(E95:V95,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="expression" dxfId="1205" priority="137">
+    <cfRule type="expression" dxfId="1241" priority="137">
       <formula>COUNTIF(E96:V96,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1204" priority="138">
+    <cfRule type="expression" dxfId="1240" priority="138">
       <formula>AND(COUNTIF(E96:V96,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="1203" priority="139">
+    <cfRule type="expression" dxfId="1239" priority="139">
       <formula>COUNTIF(E97:V97,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="140">
+    <cfRule type="expression" dxfId="1238" priority="140">
       <formula>AND(COUNTIF(E97:V97,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C97)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35130,242 +35900,242 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1201" priority="13">
+    <cfRule type="expression" dxfId="1237" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1200" priority="14">
+    <cfRule type="expression" dxfId="1236" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1199" priority="15">
+    <cfRule type="expression" dxfId="1235" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="16">
+    <cfRule type="expression" dxfId="1234" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1197" priority="17">
+    <cfRule type="expression" dxfId="1233" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="18">
+    <cfRule type="expression" dxfId="1232" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1195" priority="19">
+    <cfRule type="expression" dxfId="1231" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="20">
+    <cfRule type="expression" dxfId="1230" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1193" priority="21">
+    <cfRule type="expression" dxfId="1229" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1192" priority="22">
+    <cfRule type="expression" dxfId="1228" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1191" priority="23">
+    <cfRule type="expression" dxfId="1227" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="24">
+    <cfRule type="expression" dxfId="1226" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1189" priority="25">
+    <cfRule type="expression" dxfId="1225" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="26">
+    <cfRule type="expression" dxfId="1224" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1187" priority="27">
+    <cfRule type="expression" dxfId="1223" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="28">
+    <cfRule type="expression" dxfId="1222" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1185" priority="1">
+    <cfRule type="expression" dxfId="1221" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1184" priority="2">
+    <cfRule type="expression" dxfId="1220" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1183" priority="29">
+    <cfRule type="expression" dxfId="1219" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="30">
+    <cfRule type="expression" dxfId="1218" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1181" priority="31">
+    <cfRule type="expression" dxfId="1217" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="32">
+    <cfRule type="expression" dxfId="1216" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1179" priority="33">
+    <cfRule type="expression" dxfId="1215" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="34">
+    <cfRule type="expression" dxfId="1214" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1177" priority="35">
+    <cfRule type="expression" dxfId="1213" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1176" priority="36">
+    <cfRule type="expression" dxfId="1212" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1175" priority="37">
+    <cfRule type="expression" dxfId="1211" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="38">
+    <cfRule type="expression" dxfId="1210" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1173" priority="39">
+    <cfRule type="expression" dxfId="1209" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="40">
+    <cfRule type="expression" dxfId="1208" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1171" priority="3">
+    <cfRule type="expression" dxfId="1207" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="4">
+    <cfRule type="expression" dxfId="1206" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1169" priority="41">
+    <cfRule type="expression" dxfId="1205" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="42">
+    <cfRule type="expression" dxfId="1204" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1167" priority="43">
+    <cfRule type="expression" dxfId="1203" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="44">
+    <cfRule type="expression" dxfId="1202" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1165" priority="45">
+    <cfRule type="expression" dxfId="1201" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="46">
+    <cfRule type="expression" dxfId="1200" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1163" priority="47">
+    <cfRule type="expression" dxfId="1199" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="48">
+    <cfRule type="expression" dxfId="1198" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1161" priority="49">
+    <cfRule type="expression" dxfId="1197" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="50">
+    <cfRule type="expression" dxfId="1196" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1159" priority="51">
+    <cfRule type="expression" dxfId="1195" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="52">
+    <cfRule type="expression" dxfId="1194" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1157" priority="53">
+    <cfRule type="expression" dxfId="1193" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="54">
+    <cfRule type="expression" dxfId="1192" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1155" priority="55">
+    <cfRule type="expression" dxfId="1191" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="56">
+    <cfRule type="expression" dxfId="1190" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1153" priority="5">
+    <cfRule type="expression" dxfId="1189" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="6">
+    <cfRule type="expression" dxfId="1188" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1151" priority="57">
+    <cfRule type="expression" dxfId="1187" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="58">
+    <cfRule type="expression" dxfId="1186" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1149" priority="59">
+    <cfRule type="expression" dxfId="1185" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="60">
+    <cfRule type="expression" dxfId="1184" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1147" priority="7">
+    <cfRule type="expression" dxfId="1183" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="8">
+    <cfRule type="expression" dxfId="1182" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1145" priority="9">
+    <cfRule type="expression" dxfId="1181" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="10">
+    <cfRule type="expression" dxfId="1180" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1143" priority="11">
+    <cfRule type="expression" dxfId="1179" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="12">
+    <cfRule type="expression" dxfId="1178" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37484,362 +38254,362 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1141" priority="13">
+    <cfRule type="expression" dxfId="1177" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="14">
+    <cfRule type="expression" dxfId="1176" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1139" priority="15">
+    <cfRule type="expression" dxfId="1175" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="16">
+    <cfRule type="expression" dxfId="1174" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1137" priority="17">
+    <cfRule type="expression" dxfId="1173" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="18">
+    <cfRule type="expression" dxfId="1172" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1135" priority="19">
+    <cfRule type="expression" dxfId="1171" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="20">
+    <cfRule type="expression" dxfId="1170" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1133" priority="21">
+    <cfRule type="expression" dxfId="1169" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="22">
+    <cfRule type="expression" dxfId="1168" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1131" priority="23">
+    <cfRule type="expression" dxfId="1167" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="24">
+    <cfRule type="expression" dxfId="1166" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1129" priority="25">
+    <cfRule type="expression" dxfId="1165" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="26">
+    <cfRule type="expression" dxfId="1164" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1127" priority="27">
+    <cfRule type="expression" dxfId="1163" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="28">
+    <cfRule type="expression" dxfId="1162" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1125" priority="1">
+    <cfRule type="expression" dxfId="1161" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="2">
+    <cfRule type="expression" dxfId="1160" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1123" priority="29">
+    <cfRule type="expression" dxfId="1159" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="30">
+    <cfRule type="expression" dxfId="1158" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1121" priority="31">
+    <cfRule type="expression" dxfId="1157" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="32">
+    <cfRule type="expression" dxfId="1156" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1119" priority="33">
+    <cfRule type="expression" dxfId="1155" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="34">
+    <cfRule type="expression" dxfId="1154" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1117" priority="35">
+    <cfRule type="expression" dxfId="1153" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="36">
+    <cfRule type="expression" dxfId="1152" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1115" priority="37">
+    <cfRule type="expression" dxfId="1151" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="38">
+    <cfRule type="expression" dxfId="1150" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1113" priority="39">
+    <cfRule type="expression" dxfId="1149" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="40">
+    <cfRule type="expression" dxfId="1148" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1111" priority="3">
+    <cfRule type="expression" dxfId="1147" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="4">
+    <cfRule type="expression" dxfId="1146" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1109" priority="41">
+    <cfRule type="expression" dxfId="1145" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="42">
+    <cfRule type="expression" dxfId="1144" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1107" priority="43">
+    <cfRule type="expression" dxfId="1143" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="44">
+    <cfRule type="expression" dxfId="1142" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1105" priority="45">
+    <cfRule type="expression" dxfId="1141" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="46">
+    <cfRule type="expression" dxfId="1140" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1103" priority="47">
+    <cfRule type="expression" dxfId="1139" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="48">
+    <cfRule type="expression" dxfId="1138" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1101" priority="49">
+    <cfRule type="expression" dxfId="1137" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="50">
+    <cfRule type="expression" dxfId="1136" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1099" priority="51">
+    <cfRule type="expression" dxfId="1135" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="52">
+    <cfRule type="expression" dxfId="1134" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1097" priority="53">
+    <cfRule type="expression" dxfId="1133" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="54">
+    <cfRule type="expression" dxfId="1132" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1095" priority="55">
+    <cfRule type="expression" dxfId="1131" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="56">
+    <cfRule type="expression" dxfId="1130" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1093" priority="5">
+    <cfRule type="expression" dxfId="1129" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="6">
+    <cfRule type="expression" dxfId="1128" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1091" priority="57">
+    <cfRule type="expression" dxfId="1127" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="58">
+    <cfRule type="expression" dxfId="1126" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1089" priority="59">
+    <cfRule type="expression" dxfId="1125" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="60">
+    <cfRule type="expression" dxfId="1124" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="1087" priority="61">
+    <cfRule type="expression" dxfId="1123" priority="61">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="62">
+    <cfRule type="expression" dxfId="1122" priority="62">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1085" priority="63">
+    <cfRule type="expression" dxfId="1121" priority="63">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="64">
+    <cfRule type="expression" dxfId="1120" priority="64">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1083" priority="65">
+    <cfRule type="expression" dxfId="1119" priority="65">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="66">
+    <cfRule type="expression" dxfId="1118" priority="66">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="1081" priority="67">
+    <cfRule type="expression" dxfId="1117" priority="67">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="68">
+    <cfRule type="expression" dxfId="1116" priority="68">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="1079" priority="69">
+    <cfRule type="expression" dxfId="1115" priority="69">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="70">
+    <cfRule type="expression" dxfId="1114" priority="70">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1077" priority="7">
+    <cfRule type="expression" dxfId="1113" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="8">
+    <cfRule type="expression" dxfId="1112" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="1075" priority="71">
+    <cfRule type="expression" dxfId="1111" priority="71">
       <formula>COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="72">
+    <cfRule type="expression" dxfId="1110" priority="72">
       <formula>AND(COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="1073" priority="73">
+    <cfRule type="expression" dxfId="1109" priority="73">
       <formula>COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="74">
+    <cfRule type="expression" dxfId="1108" priority="74">
       <formula>AND(COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="1071" priority="75">
+    <cfRule type="expression" dxfId="1107" priority="75">
       <formula>COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="76">
+    <cfRule type="expression" dxfId="1106" priority="76">
       <formula>AND(COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="1069" priority="77">
+    <cfRule type="expression" dxfId="1105" priority="77">
       <formula>COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="78">
+    <cfRule type="expression" dxfId="1104" priority="78">
       <formula>AND(COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="1067" priority="79">
+    <cfRule type="expression" dxfId="1103" priority="79">
       <formula>COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="80">
+    <cfRule type="expression" dxfId="1102" priority="80">
       <formula>AND(COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="1065" priority="81">
+    <cfRule type="expression" dxfId="1101" priority="81">
       <formula>COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="82">
+    <cfRule type="expression" dxfId="1100" priority="82">
       <formula>AND(COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="1063" priority="83">
+    <cfRule type="expression" dxfId="1099" priority="83">
       <formula>COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="84">
+    <cfRule type="expression" dxfId="1098" priority="84">
       <formula>AND(COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1061" priority="9">
+    <cfRule type="expression" dxfId="1097" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="10">
+    <cfRule type="expression" dxfId="1096" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="1059" priority="85">
+    <cfRule type="expression" dxfId="1095" priority="85">
       <formula>COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="86">
+    <cfRule type="expression" dxfId="1094" priority="86">
       <formula>AND(COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="1057" priority="87">
+    <cfRule type="expression" dxfId="1093" priority="87">
       <formula>COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="88">
+    <cfRule type="expression" dxfId="1092" priority="88">
       <formula>AND(COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="1055" priority="89">
+    <cfRule type="expression" dxfId="1091" priority="89">
       <formula>COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="90">
+    <cfRule type="expression" dxfId="1090" priority="90">
       <formula>AND(COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1053" priority="11">
+    <cfRule type="expression" dxfId="1089" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="12">
+    <cfRule type="expression" dxfId="1088" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39804,322 +40574,322 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1051" priority="13">
+    <cfRule type="expression" dxfId="1087" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="14">
+    <cfRule type="expression" dxfId="1086" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1049" priority="15">
+    <cfRule type="expression" dxfId="1085" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="16">
+    <cfRule type="expression" dxfId="1084" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1047" priority="17">
+    <cfRule type="expression" dxfId="1083" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="18">
+    <cfRule type="expression" dxfId="1082" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1045" priority="19">
+    <cfRule type="expression" dxfId="1081" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="20">
+    <cfRule type="expression" dxfId="1080" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1043" priority="21">
+    <cfRule type="expression" dxfId="1079" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="22">
+    <cfRule type="expression" dxfId="1078" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1041" priority="23">
+    <cfRule type="expression" dxfId="1077" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="24">
+    <cfRule type="expression" dxfId="1076" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1039" priority="25">
+    <cfRule type="expression" dxfId="1075" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="26">
+    <cfRule type="expression" dxfId="1074" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1037" priority="27">
+    <cfRule type="expression" dxfId="1073" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="28">
+    <cfRule type="expression" dxfId="1072" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1035" priority="1">
+    <cfRule type="expression" dxfId="1071" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="2">
+    <cfRule type="expression" dxfId="1070" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1033" priority="29">
+    <cfRule type="expression" dxfId="1069" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="30">
+    <cfRule type="expression" dxfId="1068" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1031" priority="31">
+    <cfRule type="expression" dxfId="1067" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="32">
+    <cfRule type="expression" dxfId="1066" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1029" priority="33">
+    <cfRule type="expression" dxfId="1065" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="34">
+    <cfRule type="expression" dxfId="1064" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1027" priority="35">
+    <cfRule type="expression" dxfId="1063" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="36">
+    <cfRule type="expression" dxfId="1062" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1025" priority="37">
+    <cfRule type="expression" dxfId="1061" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="38">
+    <cfRule type="expression" dxfId="1060" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1023" priority="39">
+    <cfRule type="expression" dxfId="1059" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="40">
+    <cfRule type="expression" dxfId="1058" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1021" priority="3">
+    <cfRule type="expression" dxfId="1057" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="4">
+    <cfRule type="expression" dxfId="1056" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1019" priority="41">
+    <cfRule type="expression" dxfId="1055" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="42">
+    <cfRule type="expression" dxfId="1054" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1017" priority="43">
+    <cfRule type="expression" dxfId="1053" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="44">
+    <cfRule type="expression" dxfId="1052" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1015" priority="45">
+    <cfRule type="expression" dxfId="1051" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="46">
+    <cfRule type="expression" dxfId="1050" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1013" priority="47">
+    <cfRule type="expression" dxfId="1049" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="48">
+    <cfRule type="expression" dxfId="1048" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1011" priority="49">
+    <cfRule type="expression" dxfId="1047" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="50">
+    <cfRule type="expression" dxfId="1046" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1009" priority="51">
+    <cfRule type="expression" dxfId="1045" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="52">
+    <cfRule type="expression" dxfId="1044" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1007" priority="53">
+    <cfRule type="expression" dxfId="1043" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="54">
+    <cfRule type="expression" dxfId="1042" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1005" priority="55">
+    <cfRule type="expression" dxfId="1041" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="56">
+    <cfRule type="expression" dxfId="1040" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1003" priority="5">
+    <cfRule type="expression" dxfId="1039" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="6">
+    <cfRule type="expression" dxfId="1038" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1001" priority="57">
+    <cfRule type="expression" dxfId="1037" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="58">
+    <cfRule type="expression" dxfId="1036" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="999" priority="59">
+    <cfRule type="expression" dxfId="1035" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="60">
+    <cfRule type="expression" dxfId="1034" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="997" priority="61">
+    <cfRule type="expression" dxfId="1033" priority="61">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="62">
+    <cfRule type="expression" dxfId="1032" priority="62">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="995" priority="63">
+    <cfRule type="expression" dxfId="1031" priority="63">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="64">
+    <cfRule type="expression" dxfId="1030" priority="64">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="993" priority="65">
+    <cfRule type="expression" dxfId="1029" priority="65">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="66">
+    <cfRule type="expression" dxfId="1028" priority="66">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="991" priority="67">
+    <cfRule type="expression" dxfId="1027" priority="67">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="68">
+    <cfRule type="expression" dxfId="1026" priority="68">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="989" priority="69">
+    <cfRule type="expression" dxfId="1025" priority="69">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="70">
+    <cfRule type="expression" dxfId="1024" priority="70">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="987" priority="7">
+    <cfRule type="expression" dxfId="1023" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="8">
+    <cfRule type="expression" dxfId="1022" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="985" priority="71">
+    <cfRule type="expression" dxfId="1021" priority="71">
       <formula>COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="72">
+    <cfRule type="expression" dxfId="1020" priority="72">
       <formula>AND(COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="983" priority="73">
+    <cfRule type="expression" dxfId="1019" priority="73">
       <formula>COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="74">
+    <cfRule type="expression" dxfId="1018" priority="74">
       <formula>AND(COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="981" priority="75">
+    <cfRule type="expression" dxfId="1017" priority="75">
       <formula>COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="76">
+    <cfRule type="expression" dxfId="1016" priority="76">
       <formula>AND(COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="979" priority="77">
+    <cfRule type="expression" dxfId="1015" priority="77">
       <formula>COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="78">
+    <cfRule type="expression" dxfId="1014" priority="78">
       <formula>AND(COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="977" priority="79">
+    <cfRule type="expression" dxfId="1013" priority="79">
       <formula>COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="80">
+    <cfRule type="expression" dxfId="1012" priority="80">
       <formula>AND(COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="975" priority="9">
+    <cfRule type="expression" dxfId="1011" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="10">
+    <cfRule type="expression" dxfId="1010" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="973" priority="11">
+    <cfRule type="expression" dxfId="1009" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="12">
+    <cfRule type="expression" dxfId="1008" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40139,7 +40909,7 @@
   </sheetPr>
   <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+    <sheetView topLeftCell="A171" workbookViewId="0">
       <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
@@ -47113,1202 +47883,1202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="971" priority="33">
+    <cfRule type="expression" dxfId="1007" priority="33">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="34">
+    <cfRule type="expression" dxfId="1006" priority="34">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="969" priority="161">
+    <cfRule type="expression" dxfId="1005" priority="161">
       <formula>COUNTIF(E100:V100,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="162">
+    <cfRule type="expression" dxfId="1004" priority="162">
       <formula>AND(COUNTIF(E100:V100,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="967" priority="163">
+    <cfRule type="expression" dxfId="1003" priority="163">
       <formula>COUNTIF(E101:V101,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="164">
+    <cfRule type="expression" dxfId="1002" priority="164">
       <formula>AND(COUNTIF(E101:V101,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="expression" dxfId="965" priority="165">
+    <cfRule type="expression" dxfId="1001" priority="165">
       <formula>COUNTIF(E102:V102,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="166">
+    <cfRule type="expression" dxfId="1000" priority="166">
       <formula>AND(COUNTIF(E102:V102,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="expression" dxfId="963" priority="167">
+    <cfRule type="expression" dxfId="999" priority="167">
       <formula>COUNTIF(E103:V103,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="168">
+    <cfRule type="expression" dxfId="998" priority="168">
       <formula>AND(COUNTIF(E103:V103,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="expression" dxfId="961" priority="169">
+    <cfRule type="expression" dxfId="997" priority="169">
       <formula>COUNTIF(E104:V104,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="170">
+    <cfRule type="expression" dxfId="996" priority="170">
       <formula>AND(COUNTIF(E104:V104,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="959" priority="171">
+    <cfRule type="expression" dxfId="995" priority="171">
       <formula>COUNTIF(E107:V107,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="172">
+    <cfRule type="expression" dxfId="994" priority="172">
       <formula>AND(COUNTIF(E107:V107,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="957" priority="173">
+    <cfRule type="expression" dxfId="993" priority="173">
       <formula>COUNTIF(E108:V108,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="174">
+    <cfRule type="expression" dxfId="992" priority="174">
       <formula>AND(COUNTIF(E108:V108,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="expression" dxfId="955" priority="175">
+    <cfRule type="expression" dxfId="991" priority="175">
       <formula>COUNTIF(E109:V109,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="176">
+    <cfRule type="expression" dxfId="990" priority="176">
       <formula>AND(COUNTIF(E109:V109,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="953" priority="35">
+    <cfRule type="expression" dxfId="989" priority="35">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="36">
+    <cfRule type="expression" dxfId="988" priority="36">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="expression" dxfId="951" priority="177">
+    <cfRule type="expression" dxfId="987" priority="177">
       <formula>COUNTIF(E110:V110,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="178">
+    <cfRule type="expression" dxfId="986" priority="178">
       <formula>AND(COUNTIF(E110:V110,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="949" priority="179">
+    <cfRule type="expression" dxfId="985" priority="179">
       <formula>COUNTIF(E111:V111,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="180">
+    <cfRule type="expression" dxfId="984" priority="180">
       <formula>AND(COUNTIF(E111:V111,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="expression" dxfId="947" priority="181">
+    <cfRule type="expression" dxfId="983" priority="181">
       <formula>COUNTIF(E114:V114,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="182">
+    <cfRule type="expression" dxfId="982" priority="182">
       <formula>AND(COUNTIF(E114:V114,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115">
-    <cfRule type="expression" dxfId="945" priority="183">
+    <cfRule type="expression" dxfId="981" priority="183">
       <formula>COUNTIF(E115:V115,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="184">
+    <cfRule type="expression" dxfId="980" priority="184">
       <formula>AND(COUNTIF(E115:V115,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="expression" dxfId="943" priority="185">
+    <cfRule type="expression" dxfId="979" priority="185">
       <formula>COUNTIF(E116:V116,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="186">
+    <cfRule type="expression" dxfId="978" priority="186">
       <formula>AND(COUNTIF(E116:V116,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="expression" dxfId="941" priority="187">
+    <cfRule type="expression" dxfId="977" priority="187">
       <formula>COUNTIF(E117:V117,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="188">
+    <cfRule type="expression" dxfId="976" priority="188">
       <formula>AND(COUNTIF(E117:V117,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="939" priority="189">
+    <cfRule type="expression" dxfId="975" priority="189">
       <formula>COUNTIF(E118:V118,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="190">
+    <cfRule type="expression" dxfId="974" priority="190">
       <formula>AND(COUNTIF(E118:V118,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="937" priority="37">
+    <cfRule type="expression" dxfId="973" priority="37">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="38">
+    <cfRule type="expression" dxfId="972" priority="38">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="935" priority="191">
+    <cfRule type="expression" dxfId="971" priority="191">
       <formula>COUNTIF(E121:V121,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="192">
+    <cfRule type="expression" dxfId="970" priority="192">
       <formula>AND(COUNTIF(E121:V121,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="933" priority="193">
+    <cfRule type="expression" dxfId="969" priority="193">
       <formula>COUNTIF(E122:V122,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="194">
+    <cfRule type="expression" dxfId="968" priority="194">
       <formula>AND(COUNTIF(E122:V122,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="expression" dxfId="931" priority="195">
+    <cfRule type="expression" dxfId="967" priority="195">
       <formula>COUNTIF(E123:V123,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="196">
+    <cfRule type="expression" dxfId="966" priority="196">
       <formula>AND(COUNTIF(E123:V123,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="929" priority="197">
+    <cfRule type="expression" dxfId="965" priority="197">
       <formula>COUNTIF(E124:V124,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="198">
+    <cfRule type="expression" dxfId="964" priority="198">
       <formula>AND(COUNTIF(E124:V124,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="expression" dxfId="927" priority="199">
+    <cfRule type="expression" dxfId="963" priority="199">
       <formula>COUNTIF(E125:V125,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="200">
+    <cfRule type="expression" dxfId="962" priority="200">
       <formula>AND(COUNTIF(E125:V125,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="expression" dxfId="925" priority="201">
+    <cfRule type="expression" dxfId="961" priority="201">
       <formula>COUNTIF(E128:V128,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="202">
+    <cfRule type="expression" dxfId="960" priority="202">
       <formula>AND(COUNTIF(E128:V128,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="expression" dxfId="923" priority="203">
+    <cfRule type="expression" dxfId="959" priority="203">
       <formula>COUNTIF(E129:V129,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="204">
+    <cfRule type="expression" dxfId="958" priority="204">
       <formula>AND(COUNTIF(E129:V129,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="921" priority="39">
+    <cfRule type="expression" dxfId="957" priority="39">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="40">
+    <cfRule type="expression" dxfId="956" priority="40">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="expression" dxfId="919" priority="205">
+    <cfRule type="expression" dxfId="955" priority="205">
       <formula>COUNTIF(E130:V130,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="206">
+    <cfRule type="expression" dxfId="954" priority="206">
       <formula>AND(COUNTIF(E130:V130,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="expression" dxfId="917" priority="207">
+    <cfRule type="expression" dxfId="953" priority="207">
       <formula>COUNTIF(E131:V131,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="208">
+    <cfRule type="expression" dxfId="952" priority="208">
       <formula>AND(COUNTIF(E131:V131,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="expression" dxfId="915" priority="209">
+    <cfRule type="expression" dxfId="951" priority="209">
       <formula>COUNTIF(E132:V132,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="210">
+    <cfRule type="expression" dxfId="950" priority="210">
       <formula>AND(COUNTIF(E132:V132,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="expression" dxfId="913" priority="211">
+    <cfRule type="expression" dxfId="949" priority="211">
       <formula>COUNTIF(E135:V135,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="212">
+    <cfRule type="expression" dxfId="948" priority="212">
       <formula>AND(COUNTIF(E135:V135,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="expression" dxfId="911" priority="213">
+    <cfRule type="expression" dxfId="947" priority="213">
       <formula>COUNTIF(E136:V136,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="214">
+    <cfRule type="expression" dxfId="946" priority="214">
       <formula>AND(COUNTIF(E136:V136,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C137">
-    <cfRule type="expression" dxfId="909" priority="215">
+    <cfRule type="expression" dxfId="945" priority="215">
       <formula>COUNTIF(E137:V137,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="216">
+    <cfRule type="expression" dxfId="944" priority="216">
       <formula>AND(COUNTIF(E137:V137,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C138">
-    <cfRule type="expression" dxfId="907" priority="217">
+    <cfRule type="expression" dxfId="943" priority="217">
       <formula>COUNTIF(E138:V138,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="218">
+    <cfRule type="expression" dxfId="942" priority="218">
       <formula>AND(COUNTIF(E138:V138,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C139">
-    <cfRule type="expression" dxfId="905" priority="219">
+    <cfRule type="expression" dxfId="941" priority="219">
       <formula>COUNTIF(E139:V139,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="220">
+    <cfRule type="expression" dxfId="940" priority="220">
       <formula>AND(COUNTIF(E139:V139,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="expression" dxfId="903" priority="221">
+    <cfRule type="expression" dxfId="939" priority="221">
       <formula>COUNTIF(E142:V142,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="222">
+    <cfRule type="expression" dxfId="938" priority="222">
       <formula>AND(COUNTIF(E142:V142,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="expression" dxfId="901" priority="223">
+    <cfRule type="expression" dxfId="937" priority="223">
       <formula>COUNTIF(E143:V143,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="224">
+    <cfRule type="expression" dxfId="936" priority="224">
       <formula>AND(COUNTIF(E143:V143,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144">
-    <cfRule type="expression" dxfId="899" priority="225">
+    <cfRule type="expression" dxfId="935" priority="225">
       <formula>COUNTIF(E144:V144,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="226">
+    <cfRule type="expression" dxfId="934" priority="226">
       <formula>AND(COUNTIF(E144:V144,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145">
-    <cfRule type="expression" dxfId="897" priority="227">
+    <cfRule type="expression" dxfId="933" priority="227">
       <formula>COUNTIF(E145:V145,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="228">
+    <cfRule type="expression" dxfId="932" priority="228">
       <formula>AND(COUNTIF(E145:V145,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="expression" dxfId="895" priority="229">
+    <cfRule type="expression" dxfId="931" priority="229">
       <formula>COUNTIF(E146:V146,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="230">
+    <cfRule type="expression" dxfId="930" priority="230">
       <formula>AND(COUNTIF(E146:V146,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="expression" dxfId="893" priority="231">
+    <cfRule type="expression" dxfId="929" priority="231">
       <formula>COUNTIF(E163:V163,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="232">
+    <cfRule type="expression" dxfId="928" priority="232">
       <formula>AND(COUNTIF(E163:V163,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="expression" dxfId="891" priority="233">
+    <cfRule type="expression" dxfId="927" priority="233">
       <formula>COUNTIF(E164:V164,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="234">
+    <cfRule type="expression" dxfId="926" priority="234">
       <formula>AND(COUNTIF(E164:V164,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165">
-    <cfRule type="expression" dxfId="889" priority="235">
+    <cfRule type="expression" dxfId="925" priority="235">
       <formula>COUNTIF(E165:V165,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="236">
+    <cfRule type="expression" dxfId="924" priority="236">
       <formula>AND(COUNTIF(E165:V165,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166">
-    <cfRule type="expression" dxfId="887" priority="237">
+    <cfRule type="expression" dxfId="923" priority="237">
       <formula>COUNTIF(E166:V166,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="238">
+    <cfRule type="expression" dxfId="922" priority="238">
       <formula>AND(COUNTIF(E166:V166,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167">
-    <cfRule type="expression" dxfId="885" priority="239">
+    <cfRule type="expression" dxfId="921" priority="239">
       <formula>COUNTIF(E167:V167,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="240">
+    <cfRule type="expression" dxfId="920" priority="240">
       <formula>AND(COUNTIF(E167:V167,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="expression" dxfId="883" priority="241">
+    <cfRule type="expression" dxfId="919" priority="241">
       <formula>COUNTIF(E170:V170,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="242">
+    <cfRule type="expression" dxfId="918" priority="242">
       <formula>AND(COUNTIF(E170:V170,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="expression" dxfId="881" priority="243">
+    <cfRule type="expression" dxfId="917" priority="243">
       <formula>COUNTIF(E171:V171,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="244">
+    <cfRule type="expression" dxfId="916" priority="244">
       <formula>AND(COUNTIF(E171:V171,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="expression" dxfId="879" priority="245">
+    <cfRule type="expression" dxfId="915" priority="245">
       <formula>COUNTIF(E172:V172,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="246">
+    <cfRule type="expression" dxfId="914" priority="246">
       <formula>AND(COUNTIF(E172:V172,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="expression" dxfId="877" priority="247">
+    <cfRule type="expression" dxfId="913" priority="247">
       <formula>COUNTIF(E173:V173,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="248">
+    <cfRule type="expression" dxfId="912" priority="248">
       <formula>AND(COUNTIF(E173:V173,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="875" priority="41">
+    <cfRule type="expression" dxfId="911" priority="41">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="42">
+    <cfRule type="expression" dxfId="910" priority="42">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="expression" dxfId="873" priority="249">
+    <cfRule type="expression" dxfId="909" priority="249">
       <formula>COUNTIF(E174:V174,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="250">
+    <cfRule type="expression" dxfId="908" priority="250">
       <formula>AND(COUNTIF(E174:V174,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177">
-    <cfRule type="expression" dxfId="871" priority="251">
+    <cfRule type="expression" dxfId="907" priority="251">
       <formula>COUNTIF(E177:V177,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="252">
+    <cfRule type="expression" dxfId="906" priority="252">
       <formula>AND(COUNTIF(E177:V177,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178">
-    <cfRule type="expression" dxfId="869" priority="253">
+    <cfRule type="expression" dxfId="905" priority="253">
       <formula>COUNTIF(E178:V178,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="254">
+    <cfRule type="expression" dxfId="904" priority="254">
       <formula>AND(COUNTIF(E178:V178,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="expression" dxfId="867" priority="255">
+    <cfRule type="expression" dxfId="903" priority="255">
       <formula>COUNTIF(E179:V179,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="256">
+    <cfRule type="expression" dxfId="902" priority="256">
       <formula>AND(COUNTIF(E179:V179,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C180">
-    <cfRule type="expression" dxfId="865" priority="257">
+    <cfRule type="expression" dxfId="901" priority="257">
       <formula>COUNTIF(E180:V180,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="258">
+    <cfRule type="expression" dxfId="900" priority="258">
       <formula>AND(COUNTIF(E180:V180,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C181">
-    <cfRule type="expression" dxfId="863" priority="259">
+    <cfRule type="expression" dxfId="899" priority="259">
       <formula>COUNTIF(E181:V181,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="260">
+    <cfRule type="expression" dxfId="898" priority="260">
       <formula>AND(COUNTIF(E181:V181,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="861" priority="43">
+    <cfRule type="expression" dxfId="897" priority="43">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="44">
+    <cfRule type="expression" dxfId="896" priority="44">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="expression" dxfId="859" priority="261">
+    <cfRule type="expression" dxfId="895" priority="261">
       <formula>COUNTIF(E184:V184,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="262">
+    <cfRule type="expression" dxfId="894" priority="262">
       <formula>AND(COUNTIF(E184:V184,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C185">
-    <cfRule type="expression" dxfId="857" priority="263">
+    <cfRule type="expression" dxfId="893" priority="263">
       <formula>COUNTIF(E185:V185,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="264">
+    <cfRule type="expression" dxfId="892" priority="264">
       <formula>AND(COUNTIF(E185:V185,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186">
-    <cfRule type="expression" dxfId="855" priority="265">
+    <cfRule type="expression" dxfId="891" priority="265">
       <formula>COUNTIF(E186:V186,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="266">
+    <cfRule type="expression" dxfId="890" priority="266">
       <formula>AND(COUNTIF(E186:V186,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="expression" dxfId="853" priority="267">
+    <cfRule type="expression" dxfId="889" priority="267">
       <formula>COUNTIF(E187:V187,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="268">
+    <cfRule type="expression" dxfId="888" priority="268">
       <formula>AND(COUNTIF(E187:V187,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">
-    <cfRule type="expression" dxfId="851" priority="269">
+    <cfRule type="expression" dxfId="887" priority="269">
       <formula>COUNTIF(E188:V188,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="270">
+    <cfRule type="expression" dxfId="886" priority="270">
       <formula>AND(COUNTIF(E188:V188,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191">
-    <cfRule type="expression" dxfId="849" priority="271">
+    <cfRule type="expression" dxfId="885" priority="271">
       <formula>COUNTIF(E191:V191,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="272">
+    <cfRule type="expression" dxfId="884" priority="272">
       <formula>AND(COUNTIF(E191:V191,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C192">
-    <cfRule type="expression" dxfId="847" priority="273">
+    <cfRule type="expression" dxfId="883" priority="273">
       <formula>COUNTIF(E192:V192,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="274">
+    <cfRule type="expression" dxfId="882" priority="274">
       <formula>AND(COUNTIF(E192:V192,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193">
-    <cfRule type="expression" dxfId="845" priority="275">
+    <cfRule type="expression" dxfId="881" priority="275">
       <formula>COUNTIF(E193:V193,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="276">
+    <cfRule type="expression" dxfId="880" priority="276">
       <formula>AND(COUNTIF(E193:V193,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="843" priority="45">
+    <cfRule type="expression" dxfId="879" priority="45">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="46">
+    <cfRule type="expression" dxfId="878" priority="46">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C194">
-    <cfRule type="expression" dxfId="841" priority="277">
+    <cfRule type="expression" dxfId="877" priority="277">
       <formula>COUNTIF(E194:V194,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="278">
+    <cfRule type="expression" dxfId="876" priority="278">
       <formula>AND(COUNTIF(E194:V194,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C195">
-    <cfRule type="expression" dxfId="839" priority="279">
+    <cfRule type="expression" dxfId="875" priority="279">
       <formula>COUNTIF(E195:V195,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="280">
+    <cfRule type="expression" dxfId="874" priority="280">
       <formula>AND(COUNTIF(E195:V195,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C198">
-    <cfRule type="expression" dxfId="837" priority="281">
+    <cfRule type="expression" dxfId="873" priority="281">
       <formula>COUNTIF(E198:V198,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="282">
+    <cfRule type="expression" dxfId="872" priority="282">
       <formula>AND(COUNTIF(E198:V198,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C199">
-    <cfRule type="expression" dxfId="835" priority="283">
+    <cfRule type="expression" dxfId="871" priority="283">
       <formula>COUNTIF(E199:V199,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="284">
+    <cfRule type="expression" dxfId="870" priority="284">
       <formula>AND(COUNTIF(E199:V199,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C199)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C200">
-    <cfRule type="expression" dxfId="833" priority="285">
+    <cfRule type="expression" dxfId="869" priority="285">
       <formula>COUNTIF(E200:V200,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="286">
+    <cfRule type="expression" dxfId="868" priority="286">
       <formula>AND(COUNTIF(E200:V200,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C201">
-    <cfRule type="expression" dxfId="831" priority="287">
+    <cfRule type="expression" dxfId="867" priority="287">
       <formula>COUNTIF(E201:V201,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="288">
+    <cfRule type="expression" dxfId="866" priority="288">
       <formula>AND(COUNTIF(E201:V201,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="expression" dxfId="829" priority="289">
+    <cfRule type="expression" dxfId="865" priority="289">
       <formula>COUNTIF(E202:V202,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="290">
+    <cfRule type="expression" dxfId="864" priority="290">
       <formula>AND(COUNTIF(E202:V202,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="827" priority="47">
+    <cfRule type="expression" dxfId="863" priority="47">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="48">
+    <cfRule type="expression" dxfId="862" priority="48">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205">
-    <cfRule type="expression" dxfId="825" priority="291">
+    <cfRule type="expression" dxfId="861" priority="291">
       <formula>COUNTIF(E205:V205,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="292">
+    <cfRule type="expression" dxfId="860" priority="292">
       <formula>AND(COUNTIF(E205:V205,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206">
-    <cfRule type="expression" dxfId="823" priority="293">
+    <cfRule type="expression" dxfId="859" priority="293">
       <formula>COUNTIF(E206:V206,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="294">
+    <cfRule type="expression" dxfId="858" priority="294">
       <formula>AND(COUNTIF(E206:V206,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C207">
-    <cfRule type="expression" dxfId="821" priority="295">
+    <cfRule type="expression" dxfId="857" priority="295">
       <formula>COUNTIF(E207:V207,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="296">
+    <cfRule type="expression" dxfId="856" priority="296">
       <formula>AND(COUNTIF(E207:V207,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C208">
-    <cfRule type="expression" dxfId="819" priority="297">
+    <cfRule type="expression" dxfId="855" priority="297">
       <formula>COUNTIF(E208:V208,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="298">
+    <cfRule type="expression" dxfId="854" priority="298">
       <formula>AND(COUNTIF(E208:V208,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C209">
-    <cfRule type="expression" dxfId="817" priority="299">
+    <cfRule type="expression" dxfId="853" priority="299">
       <formula>COUNTIF(E209:V209,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="300">
+    <cfRule type="expression" dxfId="852" priority="300">
       <formula>AND(COUNTIF(E209:V209,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="815" priority="21">
+    <cfRule type="expression" dxfId="851" priority="21">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="22">
+    <cfRule type="expression" dxfId="850" priority="22">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="813" priority="49">
+    <cfRule type="expression" dxfId="849" priority="49">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="50">
+    <cfRule type="expression" dxfId="848" priority="50">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="811" priority="51">
+    <cfRule type="expression" dxfId="847" priority="51">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="52">
+    <cfRule type="expression" dxfId="846" priority="52">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="809" priority="53">
+    <cfRule type="expression" dxfId="845" priority="53">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="54">
+    <cfRule type="expression" dxfId="844" priority="54">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="807" priority="55">
+    <cfRule type="expression" dxfId="843" priority="55">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="56">
+    <cfRule type="expression" dxfId="842" priority="56">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="805" priority="57">
+    <cfRule type="expression" dxfId="841" priority="57">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="58">
+    <cfRule type="expression" dxfId="840" priority="58">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="803" priority="59">
+    <cfRule type="expression" dxfId="839" priority="59">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="60">
+    <cfRule type="expression" dxfId="838" priority="60">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="801" priority="23">
+    <cfRule type="expression" dxfId="837" priority="23">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="24">
+    <cfRule type="expression" dxfId="836" priority="24">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="799" priority="61">
+    <cfRule type="expression" dxfId="835" priority="61">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="62">
+    <cfRule type="expression" dxfId="834" priority="62">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="797" priority="63">
+    <cfRule type="expression" dxfId="833" priority="63">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="64">
+    <cfRule type="expression" dxfId="832" priority="64">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="795" priority="65">
+    <cfRule type="expression" dxfId="831" priority="65">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="66">
+    <cfRule type="expression" dxfId="830" priority="66">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="793" priority="67">
+    <cfRule type="expression" dxfId="829" priority="67">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="68">
+    <cfRule type="expression" dxfId="828" priority="68">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="791" priority="69">
+    <cfRule type="expression" dxfId="827" priority="69">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="70">
+    <cfRule type="expression" dxfId="826" priority="70">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="789" priority="71">
+    <cfRule type="expression" dxfId="825" priority="71">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="72">
+    <cfRule type="expression" dxfId="824" priority="72">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="787" priority="73">
+    <cfRule type="expression" dxfId="823" priority="73">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="74">
+    <cfRule type="expression" dxfId="822" priority="74">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="785" priority="75">
+    <cfRule type="expression" dxfId="821" priority="75">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="76">
+    <cfRule type="expression" dxfId="820" priority="76">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="783" priority="25">
+    <cfRule type="expression" dxfId="819" priority="25">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="26">
+    <cfRule type="expression" dxfId="818" priority="26">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="781" priority="77">
+    <cfRule type="expression" dxfId="817" priority="77">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="78">
+    <cfRule type="expression" dxfId="816" priority="78">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="779" priority="79">
+    <cfRule type="expression" dxfId="815" priority="79">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="80">
+    <cfRule type="expression" dxfId="814" priority="80">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="777" priority="81">
+    <cfRule type="expression" dxfId="813" priority="81">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="82">
+    <cfRule type="expression" dxfId="812" priority="82">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="775" priority="83">
+    <cfRule type="expression" dxfId="811" priority="83">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="84">
+    <cfRule type="expression" dxfId="810" priority="84">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="773" priority="85">
+    <cfRule type="expression" dxfId="809" priority="85">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="86">
+    <cfRule type="expression" dxfId="808" priority="86">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="771" priority="87">
+    <cfRule type="expression" dxfId="807" priority="87">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="88">
+    <cfRule type="expression" dxfId="806" priority="88">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="769" priority="89">
+    <cfRule type="expression" dxfId="805" priority="89">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="90">
+    <cfRule type="expression" dxfId="804" priority="90">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="767" priority="27">
+    <cfRule type="expression" dxfId="803" priority="27">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="28">
+    <cfRule type="expression" dxfId="802" priority="28">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="765" priority="91">
+    <cfRule type="expression" dxfId="801" priority="91">
       <formula>COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="92">
+    <cfRule type="expression" dxfId="800" priority="92">
       <formula>AND(COUNTIF(E51:V51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="763" priority="93">
+    <cfRule type="expression" dxfId="799" priority="93">
       <formula>COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="94">
+    <cfRule type="expression" dxfId="798" priority="94">
       <formula>AND(COUNTIF(E52:V52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="761" priority="95">
+    <cfRule type="expression" dxfId="797" priority="95">
       <formula>COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="96">
+    <cfRule type="expression" dxfId="796" priority="96">
       <formula>AND(COUNTIF(E53:V53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="759" priority="97">
+    <cfRule type="expression" dxfId="795" priority="97">
       <formula>COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="98">
+    <cfRule type="expression" dxfId="794" priority="98">
       <formula>AND(COUNTIF(E54:V54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="757" priority="99">
+    <cfRule type="expression" dxfId="793" priority="99">
       <formula>COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="100">
+    <cfRule type="expression" dxfId="792" priority="100">
       <formula>AND(COUNTIF(E55:V55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="755" priority="101">
+    <cfRule type="expression" dxfId="791" priority="101">
       <formula>COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="102">
+    <cfRule type="expression" dxfId="790" priority="102">
       <formula>AND(COUNTIF(E58:V58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="753" priority="103">
+    <cfRule type="expression" dxfId="789" priority="103">
       <formula>COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="104">
+    <cfRule type="expression" dxfId="788" priority="104">
       <formula>AND(COUNTIF(E59:V59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="751" priority="29">
+    <cfRule type="expression" dxfId="787" priority="29">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="30">
+    <cfRule type="expression" dxfId="786" priority="30">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="749" priority="105">
+    <cfRule type="expression" dxfId="785" priority="105">
       <formula>COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="106">
+    <cfRule type="expression" dxfId="784" priority="106">
       <formula>AND(COUNTIF(E60:V60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="747" priority="107">
+    <cfRule type="expression" dxfId="783" priority="107">
       <formula>COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="108">
+    <cfRule type="expression" dxfId="782" priority="108">
       <formula>AND(COUNTIF(E61:V61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="745" priority="109">
+    <cfRule type="expression" dxfId="781" priority="109">
       <formula>COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="110">
+    <cfRule type="expression" dxfId="780" priority="110">
       <formula>AND(COUNTIF(E62:V62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="743" priority="111">
+    <cfRule type="expression" dxfId="779" priority="111">
       <formula>COUNTIF(E65:V65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="112">
+    <cfRule type="expression" dxfId="778" priority="112">
       <formula>AND(COUNTIF(E65:V65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="741" priority="113">
+    <cfRule type="expression" dxfId="777" priority="113">
       <formula>COUNTIF(E66:V66,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="114">
+    <cfRule type="expression" dxfId="776" priority="114">
       <formula>AND(COUNTIF(E66:V66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="739" priority="115">
+    <cfRule type="expression" dxfId="775" priority="115">
       <formula>COUNTIF(E67:V67,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="116">
+    <cfRule type="expression" dxfId="774" priority="116">
       <formula>AND(COUNTIF(E67:V67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="737" priority="117">
+    <cfRule type="expression" dxfId="773" priority="117">
       <formula>COUNTIF(E68:V68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="118">
+    <cfRule type="expression" dxfId="772" priority="118">
       <formula>AND(COUNTIF(E68:V68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="735" priority="119">
+    <cfRule type="expression" dxfId="771" priority="119">
       <formula>COUNTIF(E69:V69,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="120">
+    <cfRule type="expression" dxfId="770" priority="120">
       <formula>AND(COUNTIF(E69:V69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="733" priority="121">
+    <cfRule type="expression" dxfId="769" priority="121">
       <formula>COUNTIF(E72:V72,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="122">
+    <cfRule type="expression" dxfId="768" priority="122">
       <formula>AND(COUNTIF(E72:V72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="731" priority="123">
+    <cfRule type="expression" dxfId="767" priority="123">
       <formula>COUNTIF(E73:V73,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="124">
+    <cfRule type="expression" dxfId="766" priority="124">
       <formula>AND(COUNTIF(E73:V73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="729" priority="125">
+    <cfRule type="expression" dxfId="765" priority="125">
       <formula>COUNTIF(E74:V74,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="126">
+    <cfRule type="expression" dxfId="764" priority="126">
       <formula>AND(COUNTIF(E74:V74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="727" priority="127">
+    <cfRule type="expression" dxfId="763" priority="127">
       <formula>COUNTIF(E75:V75,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="128">
+    <cfRule type="expression" dxfId="762" priority="128">
       <formula>AND(COUNTIF(E75:V75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="725" priority="129">
+    <cfRule type="expression" dxfId="761" priority="129">
       <formula>COUNTIF(E76:V76,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="130">
+    <cfRule type="expression" dxfId="760" priority="130">
       <formula>AND(COUNTIF(E76:V76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="723" priority="131">
+    <cfRule type="expression" dxfId="759" priority="131">
       <formula>COUNTIF(E79:V79,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="132">
+    <cfRule type="expression" dxfId="758" priority="132">
       <formula>AND(COUNTIF(E79:V79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="721" priority="133">
+    <cfRule type="expression" dxfId="757" priority="133">
       <formula>COUNTIF(E80:V80,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="134">
+    <cfRule type="expression" dxfId="756" priority="134">
       <formula>AND(COUNTIF(E80:V80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="719" priority="135">
+    <cfRule type="expression" dxfId="755" priority="135">
       <formula>COUNTIF(E81:V81,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="136">
+    <cfRule type="expression" dxfId="754" priority="136">
       <formula>AND(COUNTIF(E81:V81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="717" priority="137">
+    <cfRule type="expression" dxfId="753" priority="137">
       <formula>COUNTIF(E82:V82,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="138">
+    <cfRule type="expression" dxfId="752" priority="138">
       <formula>AND(COUNTIF(E82:V82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="715" priority="139">
+    <cfRule type="expression" dxfId="751" priority="139">
       <formula>COUNTIF(E83:V83,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="140">
+    <cfRule type="expression" dxfId="750" priority="140">
       <formula>AND(COUNTIF(E83:V83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="713" priority="141">
+    <cfRule type="expression" dxfId="749" priority="141">
       <formula>COUNTIF(E86:V86,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="142">
+    <cfRule type="expression" dxfId="748" priority="142">
       <formula>AND(COUNTIF(E86:V86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="711" priority="143">
+    <cfRule type="expression" dxfId="747" priority="143">
       <formula>COUNTIF(E87:V87,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="144">
+    <cfRule type="expression" dxfId="746" priority="144">
       <formula>AND(COUNTIF(E87:V87,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="709" priority="145">
+    <cfRule type="expression" dxfId="745" priority="145">
       <formula>COUNTIF(E88:V88,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="146">
+    <cfRule type="expression" dxfId="744" priority="146">
       <formula>AND(COUNTIF(E88:V88,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="707" priority="147">
+    <cfRule type="expression" dxfId="743" priority="147">
       <formula>COUNTIF(E89:V89,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="148">
+    <cfRule type="expression" dxfId="742" priority="148">
       <formula>AND(COUNTIF(E89:V89,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="705" priority="31">
+    <cfRule type="expression" dxfId="741" priority="31">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="32">
+    <cfRule type="expression" dxfId="740" priority="32">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="703" priority="149">
+    <cfRule type="expression" dxfId="739" priority="149">
       <formula>COUNTIF(E90:V90,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="150">
+    <cfRule type="expression" dxfId="738" priority="150">
       <formula>AND(COUNTIF(E90:V90,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="701" priority="151">
+    <cfRule type="expression" dxfId="737" priority="151">
       <formula>COUNTIF(E93:V93,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="152">
+    <cfRule type="expression" dxfId="736" priority="152">
       <formula>AND(COUNTIF(E93:V93,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="699" priority="153">
+    <cfRule type="expression" dxfId="735" priority="153">
       <formula>COUNTIF(E94:V94,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="154">
+    <cfRule type="expression" dxfId="734" priority="154">
       <formula>AND(COUNTIF(E94:V94,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="697" priority="155">
+    <cfRule type="expression" dxfId="733" priority="155">
       <formula>COUNTIF(E95:V95,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="156">
+    <cfRule type="expression" dxfId="732" priority="156">
       <formula>AND(COUNTIF(E95:V95,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="expression" dxfId="695" priority="157">
+    <cfRule type="expression" dxfId="731" priority="157">
       <formula>COUNTIF(E96:V96,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="158">
+    <cfRule type="expression" dxfId="730" priority="158">
       <formula>AND(COUNTIF(E96:V96,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="693" priority="159">
+    <cfRule type="expression" dxfId="729" priority="159">
       <formula>COUNTIF(E97:V97,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="160">
+    <cfRule type="expression" dxfId="728" priority="160">
       <formula>AND(COUNTIF(E97:V97,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="expression" dxfId="691" priority="11">
+    <cfRule type="expression" dxfId="727" priority="11">
       <formula>COUNTIF(E156:V156,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="12">
+    <cfRule type="expression" dxfId="726" priority="12">
       <formula>AND(COUNTIF(E156:V156,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="689" priority="13">
+    <cfRule type="expression" dxfId="725" priority="13">
       <formula>COUNTIF(E157:V157,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="14">
+    <cfRule type="expression" dxfId="724" priority="14">
       <formula>AND(COUNTIF(E157:V157,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="expression" dxfId="687" priority="15">
+    <cfRule type="expression" dxfId="723" priority="15">
       <formula>COUNTIF(E158:V158,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="16">
+    <cfRule type="expression" dxfId="722" priority="16">
       <formula>AND(COUNTIF(E158:V158,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="expression" dxfId="685" priority="17">
+    <cfRule type="expression" dxfId="721" priority="17">
       <formula>COUNTIF(E159:V159,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="18">
+    <cfRule type="expression" dxfId="720" priority="18">
       <formula>AND(COUNTIF(E159:V159,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="683" priority="19">
+    <cfRule type="expression" dxfId="719" priority="19">
       <formula>COUNTIF(E160:V160,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="20">
+    <cfRule type="expression" dxfId="718" priority="20">
       <formula>AND(COUNTIF(E160:V160,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="expression" dxfId="681" priority="1">
+    <cfRule type="expression" dxfId="717" priority="1">
       <formula>COUNTIF(E149:V149,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="2">
+    <cfRule type="expression" dxfId="716" priority="2">
       <formula>AND(COUNTIF(E149:V149,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="expression" dxfId="679" priority="3">
+    <cfRule type="expression" dxfId="715" priority="3">
       <formula>COUNTIF(E150:V150,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="4">
+    <cfRule type="expression" dxfId="714" priority="4">
       <formula>AND(COUNTIF(E150:V150,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="expression" dxfId="677" priority="5">
+    <cfRule type="expression" dxfId="713" priority="5">
       <formula>COUNTIF(E151:V151,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="6">
+    <cfRule type="expression" dxfId="712" priority="6">
       <formula>AND(COUNTIF(E151:V151,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="expression" dxfId="675" priority="7">
+    <cfRule type="expression" dxfId="711" priority="7">
       <formula>COUNTIF(E152:V152,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="8">
+    <cfRule type="expression" dxfId="710" priority="8">
       <formula>AND(COUNTIF(E152:V152,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="673" priority="9">
+    <cfRule type="expression" dxfId="709" priority="9">
       <formula>COUNTIF(E153:V153,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="10">
+    <cfRule type="expression" dxfId="708" priority="10">
       <formula>AND(COUNTIF(E153:V153,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C153)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49959,282 +50729,282 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="671" priority="23">
+    <cfRule type="expression" dxfId="707" priority="23">
       <formula>COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="24">
+    <cfRule type="expression" dxfId="706" priority="24">
       <formula>AND(COUNTIF(E17:V17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="669" priority="25">
+    <cfRule type="expression" dxfId="705" priority="25">
       <formula>COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="26">
+    <cfRule type="expression" dxfId="704" priority="26">
       <formula>AND(COUNTIF(E18:V18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="667" priority="27">
+    <cfRule type="expression" dxfId="703" priority="27">
       <formula>COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="28">
+    <cfRule type="expression" dxfId="702" priority="28">
       <formula>AND(COUNTIF(E19:V19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="665" priority="29">
+    <cfRule type="expression" dxfId="701" priority="29">
       <formula>COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="30">
+    <cfRule type="expression" dxfId="700" priority="30">
       <formula>AND(COUNTIF(E20:V20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="663" priority="31">
+    <cfRule type="expression" dxfId="699" priority="31">
       <formula>COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="32">
+    <cfRule type="expression" dxfId="698" priority="32">
       <formula>AND(COUNTIF(E23:V23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="661" priority="33">
+    <cfRule type="expression" dxfId="697" priority="33">
       <formula>COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="34">
+    <cfRule type="expression" dxfId="696" priority="34">
       <formula>AND(COUNTIF(E24:V24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="659" priority="35">
+    <cfRule type="expression" dxfId="695" priority="35">
       <formula>COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="36">
+    <cfRule type="expression" dxfId="694" priority="36">
       <formula>AND(COUNTIF(E25:V25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="657" priority="37">
+    <cfRule type="expression" dxfId="693" priority="37">
       <formula>COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="38">
+    <cfRule type="expression" dxfId="692" priority="38">
       <formula>AND(COUNTIF(E26:V26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="655" priority="11">
+    <cfRule type="expression" dxfId="691" priority="11">
       <formula>COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="12">
+    <cfRule type="expression" dxfId="690" priority="12">
       <formula>AND(COUNTIF(E9:V9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="653" priority="39">
+    <cfRule type="expression" dxfId="689" priority="39">
       <formula>COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="40">
+    <cfRule type="expression" dxfId="688" priority="40">
       <formula>AND(COUNTIF(E27:V27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="651" priority="41">
+    <cfRule type="expression" dxfId="687" priority="41">
       <formula>COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="42">
+    <cfRule type="expression" dxfId="686" priority="42">
       <formula>AND(COUNTIF(E30:V30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="649" priority="43">
+    <cfRule type="expression" dxfId="685" priority="43">
       <formula>COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="44">
+    <cfRule type="expression" dxfId="684" priority="44">
       <formula>AND(COUNTIF(E31:V31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="647" priority="45">
+    <cfRule type="expression" dxfId="683" priority="45">
       <formula>COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="46">
+    <cfRule type="expression" dxfId="682" priority="46">
       <formula>AND(COUNTIF(E32:V32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="645" priority="47">
+    <cfRule type="expression" dxfId="681" priority="47">
       <formula>COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="48">
+    <cfRule type="expression" dxfId="680" priority="48">
       <formula>AND(COUNTIF(E33:V33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="643" priority="49">
+    <cfRule type="expression" dxfId="679" priority="49">
       <formula>COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="50">
+    <cfRule type="expression" dxfId="678" priority="50">
       <formula>AND(COUNTIF(E34:V34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="641" priority="13">
+    <cfRule type="expression" dxfId="677" priority="13">
       <formula>COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="14">
+    <cfRule type="expression" dxfId="676" priority="14">
       <formula>AND(COUNTIF(E10:V10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="639" priority="51">
+    <cfRule type="expression" dxfId="675" priority="51">
       <formula>COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="52">
+    <cfRule type="expression" dxfId="674" priority="52">
       <formula>AND(COUNTIF(E37:V37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="637" priority="53">
+    <cfRule type="expression" dxfId="673" priority="53">
       <formula>COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="54">
+    <cfRule type="expression" dxfId="672" priority="54">
       <formula>AND(COUNTIF(E38:V38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="635" priority="55">
+    <cfRule type="expression" dxfId="671" priority="55">
       <formula>COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="56">
+    <cfRule type="expression" dxfId="670" priority="56">
       <formula>AND(COUNTIF(E39:V39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="633" priority="57">
+    <cfRule type="expression" dxfId="669" priority="57">
       <formula>COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="58">
+    <cfRule type="expression" dxfId="668" priority="58">
       <formula>AND(COUNTIF(E40:V40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="631" priority="59">
+    <cfRule type="expression" dxfId="667" priority="59">
       <formula>COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="60">
+    <cfRule type="expression" dxfId="666" priority="60">
       <formula>AND(COUNTIF(E41:V41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="629" priority="61">
+    <cfRule type="expression" dxfId="665" priority="61">
       <formula>COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="62">
+    <cfRule type="expression" dxfId="664" priority="62">
       <formula>AND(COUNTIF(E44:V44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="627" priority="63">
+    <cfRule type="expression" dxfId="663" priority="63">
       <formula>COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="64">
+    <cfRule type="expression" dxfId="662" priority="64">
       <formula>AND(COUNTIF(E45:V45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="625" priority="65">
+    <cfRule type="expression" dxfId="661" priority="65">
       <formula>COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="66">
+    <cfRule type="expression" dxfId="660" priority="66">
       <formula>AND(COUNTIF(E46:V46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="623" priority="15">
+    <cfRule type="expression" dxfId="659" priority="15">
       <formula>COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="16">
+    <cfRule type="expression" dxfId="658" priority="16">
       <formula>AND(COUNTIF(E11:V11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="621" priority="67">
+    <cfRule type="expression" dxfId="657" priority="67">
       <formula>COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="68">
+    <cfRule type="expression" dxfId="656" priority="68">
       <formula>AND(COUNTIF(E47:V47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="619" priority="69">
+    <cfRule type="expression" dxfId="655" priority="69">
       <formula>COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="70">
+    <cfRule type="expression" dxfId="654" priority="70">
       <formula>AND(COUNTIF(E48:V48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="617" priority="17">
+    <cfRule type="expression" dxfId="653" priority="17">
       <formula>COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="18">
+    <cfRule type="expression" dxfId="652" priority="18">
       <formula>AND(COUNTIF(E12:V12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="615" priority="19">
+    <cfRule type="expression" dxfId="651" priority="19">
       <formula>COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="20">
+    <cfRule type="expression" dxfId="650" priority="20">
       <formula>AND(COUNTIF(E13:V13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="613" priority="21">
+    <cfRule type="expression" dxfId="649" priority="21">
       <formula>COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="22">
+    <cfRule type="expression" dxfId="648" priority="22">
       <formula>AND(COUNTIF(E16:V16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="611" priority="1">
+    <cfRule type="expression" dxfId="647" priority="1">
       <formula>COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="2">
+    <cfRule type="expression" dxfId="646" priority="2">
       <formula>AND(COUNTIF(E2:V2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="609" priority="3">
+    <cfRule type="expression" dxfId="645" priority="3">
       <formula>COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="4">
+    <cfRule type="expression" dxfId="644" priority="4">
       <formula>AND(COUNTIF(E3:V3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="607" priority="5">
+    <cfRule type="expression" dxfId="643" priority="5">
       <formula>COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="6">
+    <cfRule type="expression" dxfId="642" priority="6">
       <formula>AND(COUNTIF(E4:V4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="605" priority="7">
+    <cfRule type="expression" dxfId="641" priority="7">
       <formula>COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="8">
+    <cfRule type="expression" dxfId="640" priority="8">
       <formula>AND(COUNTIF(E5:V5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="603" priority="9">
+    <cfRule type="expression" dxfId="639" priority="9">
       <formula>COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="10">
+    <cfRule type="expression" dxfId="638" priority="10">
       <formula>AND(COUNTIF(E6:V6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
